--- a/comparaison.xlsx
+++ b/comparaison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C228"/>
+  <dimension ref="A1:F228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,21 @@
           <t>rho_psnr_result</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>rmse_ssim_result</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pcc_ssim_result</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>rho_ssim_result</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -459,6 +474,15 @@
       </c>
       <c r="C2" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="3">
@@ -471,6 +495,15 @@
       <c r="C3" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.8618920524422382</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -482,6 +515,15 @@
       <c r="C4" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D4" t="n">
+        <v>1.053749708348039</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -493,6 +535,15 @@
       <c r="C5" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D5" t="n">
+        <v>2.0475599227901</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -504,6 +555,15 @@
       <c r="C6" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D6" t="n">
+        <v>2.168330492276237</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -515,6 +575,15 @@
       <c r="C7" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D7" t="n">
+        <v>2.048309246814116</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -526,6 +595,15 @@
       <c r="C8" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D8" t="n">
+        <v>1.704412007954104</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -537,6 +615,15 @@
       <c r="C9" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D9" t="n">
+        <v>1.385698372611621</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -547,6 +634,15 @@
       </c>
       <c r="C10" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="11">
@@ -559,6 +655,15 @@
       <c r="C11" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D11" t="n">
+        <v>1.482730386550241</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -569,6 +674,15 @@
       </c>
       <c r="C12" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="13">
@@ -581,6 +695,15 @@
       <c r="C13" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D13" t="n">
+        <v>1.28985363478026</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -592,6 +715,15 @@
       <c r="C14" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D14" t="n">
+        <v>1.551050540682708</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -603,6 +735,15 @@
       <c r="C15" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D15" t="n">
+        <v>1.527257538602901</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -614,6 +755,15 @@
       <c r="C16" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D16" t="n">
+        <v>0.8023158208918645</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -624,6 +774,15 @@
       </c>
       <c r="C17" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="18">
@@ -636,6 +795,15 @@
       <c r="C18" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D18" t="n">
+        <v>1.963318911429892</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -647,6 +815,15 @@
       <c r="C19" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D19" t="n">
+        <v>1.168033936042663</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -658,6 +835,15 @@
       <c r="C20" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D20" t="n">
+        <v>0.6052614268702182</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -668,6 +854,15 @@
       </c>
       <c r="C21" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="22">
@@ -680,6 +875,15 @@
       <c r="C22" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D22" t="n">
+        <v>1.011584810750916</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -690,6 +894,15 @@
       </c>
       <c r="C23" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="24">
@@ -702,6 +915,15 @@
       <c r="C24" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D24" t="n">
+        <v>1.306617013335913</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -713,6 +935,15 @@
       <c r="C25" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D25" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -723,6 +954,15 @@
       </c>
       <c r="C26" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="27">
@@ -735,6 +975,15 @@
       <c r="C27" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D27" t="n">
+        <v>0.7767649742358375</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -746,6 +995,15 @@
       <c r="C28" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D28" t="n">
+        <v>1.591161018598479</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -757,6 +1015,15 @@
       <c r="C29" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D29" t="n">
+        <v>2.089784818788722</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -768,6 +1035,15 @@
       <c r="C30" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D30" t="n">
+        <v>1.929362567926853</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -779,6 +1055,15 @@
       <c r="C31" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D31" t="n">
+        <v>2.182381251313807</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -790,6 +1075,15 @@
       <c r="C32" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D32" t="n">
+        <v>1.030250362094691</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -801,6 +1095,15 @@
       <c r="C33" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D33" t="n">
+        <v>2.209477325492923</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -812,6 +1115,15 @@
       <c r="C34" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D34" t="n">
+        <v>1.687224085282094</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -823,6 +1135,15 @@
       <c r="C35" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D35" t="n">
+        <v>0.7114520316637148</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -834,6 +1155,15 @@
       <c r="C36" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D36" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -844,6 +1174,15 @@
       </c>
       <c r="C37" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="38">
@@ -856,6 +1195,15 @@
       <c r="C38" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D38" t="n">
+        <v>1.086082202786427</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -867,6 +1215,15 @@
       <c r="C39" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D39" t="n">
+        <v>1.976141976820973</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -878,6 +1235,15 @@
       <c r="C40" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D40" t="n">
+        <v>1.11015330263524</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -889,6 +1255,15 @@
       <c r="C41" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D41" t="n">
+        <v>2.198791886058351</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -900,6 +1275,15 @@
       <c r="C42" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D42" t="n">
+        <v>1.485643232198975</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -911,6 +1295,15 @@
       <c r="C43" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D43" t="n">
+        <v>1.719258834047334</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -922,6 +1315,15 @@
       <c r="C44" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D44" t="n">
+        <v>2.016585970824891</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -933,6 +1335,15 @@
       <c r="C45" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D45" t="n">
+        <v>2.108386796322608</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -944,6 +1355,15 @@
       <c r="C46" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D46" t="n">
+        <v>2.164462340703205</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -955,6 +1375,15 @@
       <c r="C47" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D47" t="n">
+        <v>2.13965487593344</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -966,6 +1395,15 @@
       <c r="C48" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D48" t="n">
+        <v>1.581895364428624</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -977,6 +1415,15 @@
       <c r="C49" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D49" t="n">
+        <v>2.235088628489579</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -988,6 +1435,15 @@
       <c r="C50" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D50" t="n">
+        <v>0.819347344457259</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -998,6 +1454,15 @@
       </c>
       <c r="C51" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="52">
@@ -1010,6 +1475,15 @@
       <c r="C52" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D52" t="n">
+        <v>0.9690154960740118</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1021,6 +1495,15 @@
       <c r="C53" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D53" t="n">
+        <v>1.642726604453706</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1032,6 +1515,15 @@
       <c r="C54" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D54" t="n">
+        <v>1.902068632231429</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1042,6 +1534,15 @@
       </c>
       <c r="C55" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="56">
@@ -1054,6 +1555,15 @@
       <c r="C56" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D56" t="n">
+        <v>1.533663124027332</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1065,6 +1575,15 @@
       <c r="C57" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D57" t="n">
+        <v>1.431168009827474</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1075,6 +1594,15 @@
       </c>
       <c r="C58" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="59">
@@ -1087,6 +1615,15 @@
       <c r="C59" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D59" t="n">
+        <v>0.6460377380982305</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1098,6 +1635,15 @@
       <c r="C60" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D60" t="n">
+        <v>0.7424038058750695</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1109,6 +1655,15 @@
       <c r="C61" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D61" t="n">
+        <v>1.922063325645565</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1120,6 +1675,15 @@
       <c r="C62" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D62" t="n">
+        <v>0.9924951631259371</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1131,6 +1695,15 @@
       <c r="C63" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D63" t="n">
+        <v>0.661784780143763</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1142,6 +1715,15 @@
       <c r="C64" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D64" t="n">
+        <v>1.179983257302107</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1152,6 +1734,15 @@
       </c>
       <c r="C65" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="66">
@@ -1164,6 +1755,15 @@
       <c r="C66" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D66" t="n">
+        <v>2.354017071946119</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1175,6 +1775,15 @@
       <c r="C67" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D67" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1185,6 +1794,15 @@
       </c>
       <c r="C68" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="69">
@@ -1197,6 +1815,15 @@
       <c r="C69" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D69" t="n">
+        <v>1.069084846845985</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1208,6 +1835,15 @@
       <c r="C70" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D70" t="n">
+        <v>0.6488140331100495</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1218,6 +1854,15 @@
       </c>
       <c r="C71" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="72">
@@ -1230,6 +1875,15 @@
       <c r="C72" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D72" t="n">
+        <v>2.294191130974382</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1241,6 +1895,15 @@
       <c r="C73" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D73" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1251,6 +1914,15 @@
       </c>
       <c r="C74" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="75">
@@ -1263,6 +1935,15 @@
       <c r="C75" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D75" t="n">
+        <v>1.67112326525763</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1274,6 +1955,15 @@
       <c r="C76" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D76" t="n">
+        <v>0.7668934868715021</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1284,6 +1974,15 @@
       </c>
       <c r="C77" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="78">
@@ -1296,6 +1995,15 @@
       <c r="C78" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D78" t="n">
+        <v>0.7972836862785193</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1307,6 +2015,15 @@
       <c r="C79" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D79" t="n">
+        <v>1.196289988327129</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1318,6 +2035,15 @@
       <c r="C80" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D80" t="n">
+        <v>2.269564659584192</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1329,6 +2055,15 @@
       <c r="C81" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D81" t="n">
+        <v>0.9733002685233952</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1340,6 +2075,15 @@
       <c r="C82" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D82" t="n">
+        <v>1.511302193973447</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1351,6 +2095,15 @@
       <c r="C83" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D83" t="n">
+        <v>0.768970188387278</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1362,6 +2115,15 @@
       <c r="C84" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D84" t="n">
+        <v>1.454971048847709</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1372,6 +2134,15 @@
       </c>
       <c r="C85" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="86">
@@ -1384,6 +2155,15 @@
       <c r="C86" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D86" t="n">
+        <v>0.9254956879970746</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1395,6 +2175,15 @@
       <c r="C87" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D87" t="n">
+        <v>2.212878070438323</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -1405,6 +2194,15 @@
       </c>
       <c r="C88" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="89">
@@ -1417,6 +2215,15 @@
       <c r="C89" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D89" t="n">
+        <v>1.979788463666998</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -1427,6 +2234,15 @@
       </c>
       <c r="C90" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="91">
@@ -1439,6 +2255,15 @@
       <c r="C91" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D91" t="n">
+        <v>0.7753554717057678</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -1450,6 +2275,15 @@
       <c r="C92" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D92" t="n">
+        <v>1.595026158782286</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -1461,6 +2295,15 @@
       <c r="C93" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D93" t="n">
+        <v>1.327721796813313</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -1471,6 +2314,15 @@
       </c>
       <c r="C94" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="95">
@@ -1483,6 +2335,15 @@
       <c r="C95" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D95" t="n">
+        <v>1.18896588790527</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -1493,6 +2354,15 @@
       </c>
       <c r="C96" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="97">
@@ -1505,6 +2375,15 @@
       <c r="C97" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D97" t="n">
+        <v>1.22851961944201</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -1515,6 +2394,15 @@
       </c>
       <c r="C98" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="99">
@@ -1527,6 +2415,15 @@
       <c r="C99" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D99" t="n">
+        <v>1.460015054261608</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -1538,6 +2435,15 @@
       <c r="C100" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D100" t="n">
+        <v>1.628087447383073</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -1548,6 +2454,15 @@
       </c>
       <c r="C101" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="102">
@@ -1560,6 +2475,15 @@
       <c r="C102" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D102" t="n">
+        <v>0.7428136981298217</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -1571,6 +2495,15 @@
       <c r="C103" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D103" t="n">
+        <v>0.666403380542693</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -1582,6 +2515,15 @@
       <c r="C104" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D104" t="n">
+        <v>0.7452130325423655</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -1593,6 +2535,15 @@
       <c r="C105" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D105" t="n">
+        <v>1.556055829683858</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -1604,6 +2555,15 @@
       <c r="C106" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D106" t="n">
+        <v>0.6792913633798208</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -1615,6 +2575,15 @@
       <c r="C107" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D107" t="n">
+        <v>1.592181290036179</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -1626,6 +2595,15 @@
       <c r="C108" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D108" t="n">
+        <v>2.287759596419772</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -1637,6 +2615,15 @@
       <c r="C109" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D109" t="n">
+        <v>1.483225293834458</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -1648,6 +2635,15 @@
       <c r="C110" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D110" t="n">
+        <v>1.309220956166447</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -1658,6 +2654,15 @@
       </c>
       <c r="C111" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="112">
@@ -1670,6 +2675,15 @@
       <c r="C112" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D112" t="n">
+        <v>0.8677436424342398</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -1680,6 +2694,15 @@
       </c>
       <c r="C113" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="114">
@@ -1692,6 +2715,15 @@
       <c r="C114" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D114" t="n">
+        <v>0.7946900383028657</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -1703,6 +2735,15 @@
       <c r="C115" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D115" t="n">
+        <v>0.8010647061858216</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -1714,6 +2755,15 @@
       <c r="C116" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D116" t="n">
+        <v>2.006815782104444</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -1725,6 +2775,15 @@
       <c r="C117" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D117" t="n">
+        <v>1.555336432675203</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -1736,6 +2795,15 @@
       <c r="C118" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D118" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -1747,6 +2815,15 @@
       <c r="C119" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D119" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -1757,6 +2834,15 @@
       </c>
       <c r="C120" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F120" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="121">
@@ -1769,6 +2855,15 @@
       <c r="C121" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D121" t="n">
+        <v>1.324836202343681</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F121" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -1780,6 +2875,15 @@
       <c r="C122" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D122" t="n">
+        <v>2.307321298068518</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -1791,6 +2895,15 @@
       <c r="C123" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D123" t="n">
+        <v>1.674503182899703</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -1801,6 +2914,15 @@
       </c>
       <c r="C124" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="125">
@@ -1813,6 +2935,15 @@
       <c r="C125" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D125" t="n">
+        <v>1.54705400882577</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -1824,6 +2955,15 @@
       <c r="C126" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D126" t="n">
+        <v>1.036568805014537</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -1835,6 +2975,15 @@
       <c r="C127" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D127" t="n">
+        <v>0.7540006474344491</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -1846,6 +2995,15 @@
       <c r="C128" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D128" t="n">
+        <v>1.98774797360259</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -1856,6 +3014,15 @@
       </c>
       <c r="C129" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E129" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="130">
@@ -1868,6 +3035,15 @@
       <c r="C130" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D130" t="n">
+        <v>0.8442337675100243</v>
+      </c>
+      <c r="E130" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -1879,6 +3055,15 @@
       <c r="C131" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D131" t="n">
+        <v>1.363614011344637</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F131" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -1889,6 +3074,15 @@
       </c>
       <c r="C132" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E132" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F132" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="133">
@@ -1901,6 +3095,15 @@
       <c r="C133" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D133" t="n">
+        <v>0.9756346531804492</v>
+      </c>
+      <c r="E133" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -1912,6 +3115,15 @@
       <c r="C134" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D134" t="n">
+        <v>1.314931838523126</v>
+      </c>
+      <c r="E134" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F134" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -1922,6 +3134,15 @@
       </c>
       <c r="C135" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E135" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="136">
@@ -1934,6 +3155,15 @@
       <c r="C136" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D136" t="n">
+        <v>2.182508868572076</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -1945,6 +3175,15 @@
       <c r="C137" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D137" t="n">
+        <v>1.196912260638519</v>
+      </c>
+      <c r="E137" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -1956,6 +3195,15 @@
       <c r="C138" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D138" t="n">
+        <v>1.708312278068391</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F138" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -1967,6 +3215,15 @@
       <c r="C139" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D139" t="n">
+        <v>1.628095964773801</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F139" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -1978,6 +3235,15 @@
       <c r="C140" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D140" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F140" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -1988,6 +3254,15 @@
       </c>
       <c r="C141" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F141" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="142">
@@ -2000,6 +3275,15 @@
       <c r="C142" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D142" t="n">
+        <v>0.6633994646092307</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F142" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -2011,6 +3295,15 @@
       <c r="C143" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D143" t="n">
+        <v>1.393046309464622</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F143" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -2022,6 +3315,15 @@
       <c r="C144" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D144" t="n">
+        <v>1.407407591164014</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F144" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -2033,6 +3335,15 @@
       <c r="C145" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D145" t="n">
+        <v>1.803540911601313</v>
+      </c>
+      <c r="E145" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F145" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -2043,6 +3354,15 @@
       </c>
       <c r="C146" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F146" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="147">
@@ -2055,6 +3375,15 @@
       <c r="C147" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D147" t="n">
+        <v>1.62622963754183</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F147" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -2065,6 +3394,15 @@
       </c>
       <c r="C148" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F148" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="149">
@@ -2077,6 +3415,15 @@
       <c r="C149" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D149" t="n">
+        <v>0.7626774091427962</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F149" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -2088,6 +3435,15 @@
       <c r="C150" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D150" t="n">
+        <v>1.183302379312759</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F150" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -2099,6 +3455,15 @@
       <c r="C151" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D151" t="n">
+        <v>0.6517651754262855</v>
+      </c>
+      <c r="E151" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F151" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -2109,6 +3474,15 @@
       </c>
       <c r="C152" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E152" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F152" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="153">
@@ -2121,6 +3495,15 @@
       <c r="C153" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D153" t="n">
+        <v>1.754500980907429</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F153" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -2131,6 +3514,15 @@
       </c>
       <c r="C154" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E154" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F154" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="155">
@@ -2143,6 +3535,15 @@
       <c r="C155" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D155" t="n">
+        <v>1.866317437591448</v>
+      </c>
+      <c r="E155" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F155" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -2154,6 +3555,15 @@
       <c r="C156" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D156" t="n">
+        <v>2.11689689774839</v>
+      </c>
+      <c r="E156" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F156" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -2165,6 +3575,15 @@
       <c r="C157" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D157" t="n">
+        <v>1.92262381739831</v>
+      </c>
+      <c r="E157" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F157" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -2175,6 +3594,15 @@
       </c>
       <c r="C158" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F158" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="159">
@@ -2187,6 +3615,15 @@
       <c r="C159" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D159" t="n">
+        <v>1.748470593047109</v>
+      </c>
+      <c r="E159" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F159" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -2197,6 +3634,15 @@
       </c>
       <c r="C160" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E160" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F160" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="161">
@@ -2209,6 +3655,15 @@
       <c r="C161" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D161" t="n">
+        <v>1.675144148359902</v>
+      </c>
+      <c r="E161" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F161" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -2219,6 +3674,15 @@
       </c>
       <c r="C162" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E162" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F162" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="163">
@@ -2231,6 +3695,15 @@
       <c r="C163" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D163" t="n">
+        <v>0.7834367214996154</v>
+      </c>
+      <c r="E163" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F163" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -2242,6 +3715,15 @@
       <c r="C164" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D164" t="n">
+        <v>1.503735458659788</v>
+      </c>
+      <c r="E164" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F164" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -2253,6 +3735,15 @@
       <c r="C165" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D165" t="n">
+        <v>1.06361202993043</v>
+      </c>
+      <c r="E165" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F165" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -2264,6 +3755,15 @@
       <c r="C166" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D166" t="n">
+        <v>1.142769271651199</v>
+      </c>
+      <c r="E166" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F166" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -2274,6 +3774,15 @@
       </c>
       <c r="C167" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E167" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F167" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="168">
@@ -2286,6 +3795,15 @@
       <c r="C168" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D168" t="n">
+        <v>1.568767309786703</v>
+      </c>
+      <c r="E168" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F168" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -2297,6 +3815,15 @@
       <c r="C169" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D169" t="n">
+        <v>1.571311562641804</v>
+      </c>
+      <c r="E169" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F169" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -2308,6 +3835,15 @@
       <c r="C170" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D170" t="n">
+        <v>1.755544665138191</v>
+      </c>
+      <c r="E170" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F170" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -2319,6 +3855,15 @@
       <c r="C171" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D171" t="n">
+        <v>1.510009137026383</v>
+      </c>
+      <c r="E171" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F171" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -2330,6 +3875,15 @@
       <c r="C172" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D172" t="n">
+        <v>0.9700639679897919</v>
+      </c>
+      <c r="E172" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F172" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -2341,6 +3895,15 @@
       <c r="C173" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D173" t="n">
+        <v>2.184552660593208</v>
+      </c>
+      <c r="E173" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F173" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -2352,6 +3915,15 @@
       <c r="C174" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D174" t="n">
+        <v>0.9275706744081638</v>
+      </c>
+      <c r="E174" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F174" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -2363,6 +3935,15 @@
       <c r="C175" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D175" t="n">
+        <v>0.703542898277949</v>
+      </c>
+      <c r="E175" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F175" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -2374,6 +3955,15 @@
       <c r="C176" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D176" t="n">
+        <v>2.194336958978506</v>
+      </c>
+      <c r="E176" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F176" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -2385,6 +3975,15 @@
       <c r="C177" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D177" t="n">
+        <v>1.077112671168119</v>
+      </c>
+      <c r="E177" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F177" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -2396,6 +3995,15 @@
       <c r="C178" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D178" t="n">
+        <v>2.084688948187064</v>
+      </c>
+      <c r="E178" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F178" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -2407,6 +4015,15 @@
       <c r="C179" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D179" t="n">
+        <v>1.648368669351772</v>
+      </c>
+      <c r="E179" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F179" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -2418,6 +4035,15 @@
       <c r="C180" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D180" t="n">
+        <v>2.187880572177185</v>
+      </c>
+      <c r="E180" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F180" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -2428,6 +4054,15 @@
       </c>
       <c r="C181" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E181" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F181" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="182">
@@ -2440,6 +4075,15 @@
       <c r="C182" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D182" t="n">
+        <v>2.202520025797835</v>
+      </c>
+      <c r="E182" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F182" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -2451,6 +4095,15 @@
       <c r="C183" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D183" t="n">
+        <v>1.323429982233724</v>
+      </c>
+      <c r="E183" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F183" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -2462,6 +4115,15 @@
       <c r="C184" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D184" t="n">
+        <v>0.6791100337438362</v>
+      </c>
+      <c r="E184" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F184" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -2472,6 +4134,15 @@
       </c>
       <c r="C185" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E185" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F185" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="186">
@@ -2484,6 +4155,15 @@
       <c r="C186" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D186" t="n">
+        <v>0.8362694575700814</v>
+      </c>
+      <c r="E186" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F186" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -2494,6 +4174,15 @@
       </c>
       <c r="C187" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E187" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F187" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="188">
@@ -2506,6 +4195,15 @@
       <c r="C188" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D188" t="n">
+        <v>1.121983892015629</v>
+      </c>
+      <c r="E188" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F188" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -2517,6 +4215,15 @@
       <c r="C189" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D189" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E189" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F189" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -2528,6 +4235,15 @@
       <c r="C190" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D190" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E190" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F190" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -2538,6 +4254,15 @@
       </c>
       <c r="C191" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E191" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F191" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="192">
@@ -2550,6 +4275,15 @@
       <c r="C192" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D192" t="n">
+        <v>2.054649488891431</v>
+      </c>
+      <c r="E192" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F192" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -2561,6 +4295,15 @@
       <c r="C193" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D193" t="n">
+        <v>1.251449949384952</v>
+      </c>
+      <c r="E193" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F193" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -2572,6 +4315,15 @@
       <c r="C194" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D194" t="n">
+        <v>1.781994314582128</v>
+      </c>
+      <c r="E194" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F194" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -2583,6 +4335,15 @@
       <c r="C195" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D195" t="n">
+        <v>1.926883124649086</v>
+      </c>
+      <c r="E195" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F195" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -2594,6 +4355,15 @@
       <c r="C196" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D196" t="n">
+        <v>0.6480724234967411</v>
+      </c>
+      <c r="E196" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F196" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -2605,6 +4375,15 @@
       <c r="C197" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D197" t="n">
+        <v>1.752400190634527</v>
+      </c>
+      <c r="E197" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F197" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -2616,6 +4395,15 @@
       <c r="C198" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D198" t="n">
+        <v>1.432760458407326</v>
+      </c>
+      <c r="E198" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F198" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -2627,6 +4415,15 @@
       <c r="C199" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D199" t="n">
+        <v>0.732027389835146</v>
+      </c>
+      <c r="E199" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F199" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -2638,6 +4435,15 @@
       <c r="C200" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D200" t="n">
+        <v>0.640843381781838</v>
+      </c>
+      <c r="E200" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F200" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -2649,6 +4455,15 @@
       <c r="C201" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D201" t="n">
+        <v>1.861213529840075</v>
+      </c>
+      <c r="E201" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F201" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -2660,6 +4475,15 @@
       <c r="C202" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D202" t="n">
+        <v>2.303484494901283</v>
+      </c>
+      <c r="E202" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F202" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -2671,6 +4495,15 @@
       <c r="C203" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D203" t="n">
+        <v>2.007916713695572</v>
+      </c>
+      <c r="E203" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F203" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -2682,6 +4515,15 @@
       <c r="C204" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D204" t="n">
+        <v>1.334750881936854</v>
+      </c>
+      <c r="E204" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F204" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -2692,6 +4534,15 @@
       </c>
       <c r="C205" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E205" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F205" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="206">
@@ -2704,6 +4555,15 @@
       <c r="C206" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D206" t="n">
+        <v>0.7847684982222652</v>
+      </c>
+      <c r="E206" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F206" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -2715,6 +4575,15 @@
       <c r="C207" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D207" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E207" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F207" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -2725,6 +4594,15 @@
       </c>
       <c r="C208" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E208" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F208" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="209">
@@ -2737,6 +4615,15 @@
       <c r="C209" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D209" t="n">
+        <v>1.475819369063069</v>
+      </c>
+      <c r="E209" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F209" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -2747,6 +4634,15 @@
       </c>
       <c r="C210" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E210" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F210" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="211">
@@ -2759,6 +4655,15 @@
       <c r="C211" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D211" t="n">
+        <v>1.058456699679792</v>
+      </c>
+      <c r="E211" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F211" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -2770,6 +4675,15 @@
       <c r="C212" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D212" t="n">
+        <v>0.6847896632479238</v>
+      </c>
+      <c r="E212" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F212" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -2781,6 +4695,15 @@
       <c r="C213" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D213" t="n">
+        <v>0.6470023729344686</v>
+      </c>
+      <c r="E213" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F213" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -2792,6 +4715,15 @@
       <c r="C214" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D214" t="n">
+        <v>2.01180794075191</v>
+      </c>
+      <c r="E214" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F214" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -2803,6 +4735,15 @@
       <c r="C215" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D215" t="n">
+        <v>0.6946718407009979</v>
+      </c>
+      <c r="E215" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F215" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -2814,6 +4755,15 @@
       <c r="C216" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D216" t="n">
+        <v>1.955301376181766</v>
+      </c>
+      <c r="E216" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F216" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -2825,6 +4775,15 @@
       <c r="C217" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D217" t="n">
+        <v>0.7812867680582093</v>
+      </c>
+      <c r="E217" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F217" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -2836,6 +4795,15 @@
       <c r="C218" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D218" t="n">
+        <v>0.7424123385771388</v>
+      </c>
+      <c r="E218" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F218" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -2847,6 +4815,15 @@
       <c r="C219" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D219" t="n">
+        <v>1.856114178669494</v>
+      </c>
+      <c r="E219" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F219" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -2858,6 +4835,15 @@
       <c r="C220" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D220" t="n">
+        <v>1.937187629421898</v>
+      </c>
+      <c r="E220" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F220" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -2869,6 +4855,15 @@
       <c r="C221" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D221" t="n">
+        <v>1.907487618370909</v>
+      </c>
+      <c r="E221" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F221" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -2880,6 +4875,15 @@
       <c r="C222" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D222" t="n">
+        <v>1.787977306818388</v>
+      </c>
+      <c r="E222" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F222" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -2891,6 +4895,15 @@
       <c r="C223" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D223" t="n">
+        <v>1.149766334880739</v>
+      </c>
+      <c r="E223" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F223" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -2902,6 +4915,15 @@
       <c r="C224" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D224" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E224" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F224" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -2912,6 +4934,15 @@
       </c>
       <c r="C225" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="E225" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F225" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
     <row r="226">
@@ -2924,6 +4955,15 @@
       <c r="C226" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D226" t="n">
+        <v>2.145515186998444</v>
+      </c>
+      <c r="E226" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F226" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -2935,6 +4975,15 @@
       <c r="C227" t="n">
         <v>-0.09895377014130968</v>
       </c>
+      <c r="D227" t="n">
+        <v>1.615533683403767</v>
+      </c>
+      <c r="E227" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F227" t="n">
+        <v>-0.1537767071766978</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -2945,6 +4994,15 @@
       </c>
       <c r="C228" t="n">
         <v>-0.09895377014130968</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1.908174755420754</v>
+      </c>
+      <c r="E228" t="n">
+        <v>-0.7052171931401728</v>
+      </c>
+      <c r="F228" t="n">
+        <v>-0.1537767071766978</v>
       </c>
     </row>
   </sheetData>

--- a/comparaison.xlsx
+++ b/comparaison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F228"/>
+  <dimension ref="A1:I228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,21 @@
           <t>rho_ssim_result</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>rmse_ms_ssim_result</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>pcc_ms_ssim_result</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rho_ms_ssim_result</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -484,6 +499,15 @@
       <c r="F2" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G2" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -504,6 +528,15 @@
       <c r="F3" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G3" t="n">
+        <v>0.8618611165366722</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -524,6 +557,15 @@
       <c r="F4" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G4" t="n">
+        <v>1.053697708758778</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -544,6 +586,15 @@
       <c r="F5" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G5" t="n">
+        <v>2.047420729004328</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -564,6 +615,15 @@
       <c r="F6" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G6" t="n">
+        <v>2.168182116141764</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -584,6 +644,15 @@
       <c r="F7" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G7" t="n">
+        <v>2.048165765220837</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -604,6 +673,15 @@
       <c r="F8" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G8" t="n">
+        <v>1.704357210487399</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -624,6 +702,15 @@
       <c r="F9" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G9" t="n">
+        <v>1.385586970679686</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -644,6 +731,15 @@
       <c r="F10" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G10" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -664,6 +760,15 @@
       <c r="F11" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G11" t="n">
+        <v>1.482612951138928</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -684,6 +789,15 @@
       <c r="F12" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G12" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -704,6 +818,15 @@
       <c r="F13" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G13" t="n">
+        <v>1.289831368224238</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -724,6 +847,15 @@
       <c r="F14" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G14" t="n">
+        <v>1.550980367259557</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -744,6 +876,15 @@
       <c r="F15" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G15" t="n">
+        <v>1.527178229090938</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -764,6 +905,15 @@
       <c r="F16" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G16" t="n">
+        <v>0.8022976774624736</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -784,6 +934,15 @@
       <c r="F17" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G17" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -804,6 +963,15 @@
       <c r="F18" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G18" t="n">
+        <v>1.963127944394828</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -824,6 +992,15 @@
       <c r="F19" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G19" t="n">
+        <v>1.168011721520443</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -844,6 +1021,15 @@
       <c r="F20" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G20" t="n">
+        <v>0.6052599338128823</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -864,6 +1050,15 @@
       <c r="F21" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G21" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -884,6 +1079,15 @@
       <c r="F22" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G22" t="n">
+        <v>1.011560820622598</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -904,6 +1108,15 @@
       <c r="F23" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G23" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -924,6 +1137,15 @@
       <c r="F24" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G24" t="n">
+        <v>1.306534012896557</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -944,6 +1166,15 @@
       <c r="F25" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G25" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -964,6 +1195,15 @@
       <c r="F26" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G26" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -984,6 +1224,15 @@
       <c r="F27" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G27" t="n">
+        <v>0.7767631809383153</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1004,6 +1253,15 @@
       <c r="F28" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G28" t="n">
+        <v>1.591095142892136</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1024,6 +1282,15 @@
       <c r="F29" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G29" t="n">
+        <v>2.08975970100035</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1044,6 +1311,15 @@
       <c r="F30" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G30" t="n">
+        <v>1.929216244033457</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1064,6 +1340,15 @@
       <c r="F31" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G31" t="n">
+        <v>2.182191226950265</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1084,6 +1369,15 @@
       <c r="F32" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G32" t="n">
+        <v>1.030235903543526</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1104,6 +1398,15 @@
       <c r="F33" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G33" t="n">
+        <v>2.209382867873103</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1124,6 +1427,15 @@
       <c r="F34" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G34" t="n">
+        <v>1.687159155043878</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1144,6 +1456,15 @@
       <c r="F35" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G35" t="n">
+        <v>0.711443379709923</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1164,6 +1485,15 @@
       <c r="F36" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G36" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1184,6 +1514,15 @@
       <c r="F37" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G37" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1204,6 +1543,15 @@
       <c r="F38" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G38" t="n">
+        <v>1.086062902285718</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1224,6 +1572,15 @@
       <c r="F39" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G39" t="n">
+        <v>1.976093644857908</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1244,6 +1601,15 @@
       <c r="F40" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G40" t="n">
+        <v>1.110114741352885</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1264,6 +1630,15 @@
       <c r="F41" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G41" t="n">
+        <v>2.198692239072768</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1284,6 +1659,15 @@
       <c r="F42" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G42" t="n">
+        <v>1.485523535840831</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1304,6 +1688,15 @@
       <c r="F43" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G43" t="n">
+        <v>1.719225689041326</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1324,6 +1717,15 @@
       <c r="F44" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G44" t="n">
+        <v>2.016526427758992</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1344,6 +1746,15 @@
       <c r="F45" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G45" t="n">
+        <v>2.108088360588119</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1364,6 +1775,15 @@
       <c r="F46" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G46" t="n">
+        <v>2.164332208190936</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1384,6 +1804,15 @@
       <c r="F47" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G47" t="n">
+        <v>2.13938823686014</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1404,6 +1833,15 @@
       <c r="F48" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G48" t="n">
+        <v>1.581827429635341</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1424,6 +1862,15 @@
       <c r="F49" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G49" t="n">
+        <v>2.234824160827521</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1444,6 +1891,15 @@
       <c r="F50" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G50" t="n">
+        <v>0.8193393782665016</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1464,6 +1920,15 @@
       <c r="F51" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G51" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1484,6 +1949,15 @@
       <c r="F52" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G52" t="n">
+        <v>0.9689952059060414</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1504,6 +1978,15 @@
       <c r="F53" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G53" t="n">
+        <v>1.642649389623574</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1524,6 +2007,15 @@
       <c r="F54" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G54" t="n">
+        <v>1.902064021447466</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1544,6 +2036,15 @@
       <c r="F55" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G55" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1564,6 +2065,15 @@
       <c r="F56" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G56" t="n">
+        <v>1.533625527959871</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1584,6 +2094,15 @@
       <c r="F57" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G57" t="n">
+        <v>1.431094764390627</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1604,6 +2123,15 @@
       <c r="F58" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G58" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1624,6 +2152,15 @@
       <c r="F59" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G59" t="n">
+        <v>0.6460375338667779</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1644,6 +2181,15 @@
       <c r="F60" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G60" t="n">
+        <v>0.7424023702598161</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1664,6 +2210,15 @@
       <c r="F61" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G61" t="n">
+        <v>1.921878856975497</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I61" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1684,6 +2239,15 @@
       <c r="F62" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G62" t="n">
+        <v>0.9924749596676642</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1704,6 +2268,15 @@
       <c r="F63" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G63" t="n">
+        <v>0.6617818642986956</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1724,6 +2297,15 @@
       <c r="F64" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G64" t="n">
+        <v>1.1799717646305</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1744,6 +2326,15 @@
       <c r="F65" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G65" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1764,6 +2355,15 @@
       <c r="F66" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G66" t="n">
+        <v>2.353895687818954</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1784,6 +2384,15 @@
       <c r="F67" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G67" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1804,6 +2413,15 @@
       <c r="F68" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G68" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I68" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1824,6 +2442,15 @@
       <c r="F69" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G69" t="n">
+        <v>1.069070590390638</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I69" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1844,6 +2471,15 @@
       <c r="F70" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G70" t="n">
+        <v>0.6488130187454001</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I70" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1864,6 +2500,15 @@
       <c r="F71" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G71" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I71" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1884,6 +2529,15 @@
       <c r="F72" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G72" t="n">
+        <v>2.293916744923938</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I72" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1904,6 +2558,15 @@
       <c r="F73" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G73" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I73" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1924,6 +2587,15 @@
       <c r="F74" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G74" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H74" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I74" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1944,6 +2616,15 @@
       <c r="F75" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G75" t="n">
+        <v>1.671000271549387</v>
+      </c>
+      <c r="H75" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I75" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1964,6 +2645,15 @@
       <c r="F76" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G76" t="n">
+        <v>0.7668891241549038</v>
+      </c>
+      <c r="H76" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I76" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1984,6 +2674,15 @@
       <c r="F77" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G77" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I77" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2004,6 +2703,15 @@
       <c r="F78" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G78" t="n">
+        <v>0.7972826132802504</v>
+      </c>
+      <c r="H78" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I78" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2024,6 +2732,15 @@
       <c r="F79" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G79" t="n">
+        <v>1.196211266203747</v>
+      </c>
+      <c r="H79" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I79" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2044,6 +2761,15 @@
       <c r="F80" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G80" t="n">
+        <v>2.269503736314909</v>
+      </c>
+      <c r="H80" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I80" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2064,6 +2790,15 @@
       <c r="F81" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G81" t="n">
+        <v>0.9732676059753157</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I81" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2084,6 +2819,15 @@
       <c r="F82" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G82" t="n">
+        <v>1.511239624880478</v>
+      </c>
+      <c r="H82" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I82" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2104,6 +2848,15 @@
       <c r="F83" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G83" t="n">
+        <v>0.7689668300383447</v>
+      </c>
+      <c r="H83" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I83" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2124,6 +2877,15 @@
       <c r="F84" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G84" t="n">
+        <v>1.454945860923107</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I84" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2144,6 +2906,15 @@
       <c r="F85" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G85" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H85" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I85" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2164,6 +2935,15 @@
       <c r="F86" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G86" t="n">
+        <v>0.9254914792126695</v>
+      </c>
+      <c r="H86" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I86" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2184,6 +2964,15 @@
       <c r="F87" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G87" t="n">
+        <v>2.212630950540216</v>
+      </c>
+      <c r="H87" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I87" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2204,6 +2993,15 @@
       <c r="F88" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G88" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I88" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2224,6 +3022,15 @@
       <c r="F89" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G89" t="n">
+        <v>1.97973366773934</v>
+      </c>
+      <c r="H89" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I89" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2244,6 +3051,15 @@
       <c r="F90" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G90" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I90" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2264,6 +3080,15 @@
       <c r="F91" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G91" t="n">
+        <v>0.7753491731496546</v>
+      </c>
+      <c r="H91" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I91" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2284,6 +3109,15 @@
       <c r="F92" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G92" t="n">
+        <v>1.59498571785907</v>
+      </c>
+      <c r="H92" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I92" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2304,6 +3138,15 @@
       <c r="F93" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G93" t="n">
+        <v>1.327704875944958</v>
+      </c>
+      <c r="H93" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I93" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2324,6 +3167,15 @@
       <c r="F94" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G94" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H94" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I94" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2344,6 +3196,15 @@
       <c r="F95" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G95" t="n">
+        <v>1.18895372232092</v>
+      </c>
+      <c r="H95" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I95" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2364,6 +3225,15 @@
       <c r="F96" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G96" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H96" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I96" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2384,6 +3254,15 @@
       <c r="F97" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G97" t="n">
+        <v>1.228508490507294</v>
+      </c>
+      <c r="H97" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I97" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2404,6 +3283,15 @@
       <c r="F98" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G98" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H98" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I98" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2424,6 +3312,15 @@
       <c r="F99" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G99" t="n">
+        <v>1.459940944033366</v>
+      </c>
+      <c r="H99" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I99" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2444,6 +3341,15 @@
       <c r="F100" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G100" t="n">
+        <v>1.628054237949446</v>
+      </c>
+      <c r="H100" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I100" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2464,6 +3370,15 @@
       <c r="F101" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G101" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H101" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I101" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2484,6 +3399,15 @@
       <c r="F102" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G102" t="n">
+        <v>0.742811113236015</v>
+      </c>
+      <c r="H102" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I102" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2504,6 +3428,15 @@
       <c r="F103" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G103" t="n">
+        <v>0.6664020421218793</v>
+      </c>
+      <c r="H103" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I103" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2524,6 +3457,15 @@
       <c r="F104" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G104" t="n">
+        <v>0.7452111105681906</v>
+      </c>
+      <c r="H104" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I104" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2544,6 +3486,15 @@
       <c r="F105" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G105" t="n">
+        <v>1.555921703820589</v>
+      </c>
+      <c r="H105" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I105" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2564,6 +3515,15 @@
       <c r="F106" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G106" t="n">
+        <v>0.6792903610245224</v>
+      </c>
+      <c r="H106" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I106" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2584,6 +3544,15 @@
       <c r="F107" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G107" t="n">
+        <v>1.592141551232939</v>
+      </c>
+      <c r="H107" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I107" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -2604,6 +3573,15 @@
       <c r="F108" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G108" t="n">
+        <v>2.287588606365889</v>
+      </c>
+      <c r="H108" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I108" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -2624,6 +3602,15 @@
       <c r="F109" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G109" t="n">
+        <v>1.483192835338609</v>
+      </c>
+      <c r="H109" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I109" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -2644,6 +3631,15 @@
       <c r="F110" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G110" t="n">
+        <v>1.309198668013228</v>
+      </c>
+      <c r="H110" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I110" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -2664,6 +3660,15 @@
       <c r="F111" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G111" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H111" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I111" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -2684,6 +3689,15 @@
       <c r="F112" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G112" t="n">
+        <v>0.8677237400275772</v>
+      </c>
+      <c r="H112" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I112" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -2704,6 +3718,15 @@
       <c r="F113" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G113" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H113" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I113" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -2724,6 +3747,15 @@
       <c r="F114" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G114" t="n">
+        <v>0.7946869928665504</v>
+      </c>
+      <c r="H114" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I114" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -2744,6 +3776,15 @@
       <c r="F115" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G115" t="n">
+        <v>0.8010620384091234</v>
+      </c>
+      <c r="H115" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I115" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -2764,6 +3805,15 @@
       <c r="F116" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G116" t="n">
+        <v>2.006595158588575</v>
+      </c>
+      <c r="H116" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I116" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -2784,6 +3834,15 @@
       <c r="F117" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G117" t="n">
+        <v>1.555306416398887</v>
+      </c>
+      <c r="H117" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I117" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -2804,6 +3863,15 @@
       <c r="F118" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G118" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H118" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I118" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -2824,6 +3892,15 @@
       <c r="F119" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G119" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H119" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I119" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -2844,6 +3921,15 @@
       <c r="F120" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G120" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H120" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I120" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -2864,6 +3950,15 @@
       <c r="F121" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G121" t="n">
+        <v>1.324793055007326</v>
+      </c>
+      <c r="H121" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I121" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -2884,6 +3979,15 @@
       <c r="F122" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G122" t="n">
+        <v>2.307313869703001</v>
+      </c>
+      <c r="H122" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I122" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -2904,6 +4008,15 @@
       <c r="F123" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G123" t="n">
+        <v>1.674468380180661</v>
+      </c>
+      <c r="H123" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I123" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -2924,6 +4037,15 @@
       <c r="F124" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G124" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H124" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I124" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -2944,6 +4066,15 @@
       <c r="F125" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G125" t="n">
+        <v>1.54700236805772</v>
+      </c>
+      <c r="H125" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I125" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -2964,6 +4095,15 @@
       <c r="F126" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G126" t="n">
+        <v>1.036515643879095</v>
+      </c>
+      <c r="H126" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I126" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -2984,6 +4124,15 @@
       <c r="F127" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G127" t="n">
+        <v>0.7539853850768938</v>
+      </c>
+      <c r="H127" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I127" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -3004,6 +4153,15 @@
       <c r="F128" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G128" t="n">
+        <v>1.98771447124096</v>
+      </c>
+      <c r="H128" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I128" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -3024,6 +4182,15 @@
       <c r="F129" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G129" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H129" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I129" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -3044,6 +4211,15 @@
       <c r="F130" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G130" t="n">
+        <v>0.8441951793826185</v>
+      </c>
+      <c r="H130" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I130" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -3064,6 +4240,15 @@
       <c r="F131" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G131" t="n">
+        <v>1.363579447281229</v>
+      </c>
+      <c r="H131" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I131" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -3084,6 +4269,15 @@
       <c r="F132" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G132" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H132" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I132" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -3104,6 +4298,15 @@
       <c r="F133" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G133" t="n">
+        <v>0.9755668859124572</v>
+      </c>
+      <c r="H133" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I133" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -3124,6 +4327,15 @@
       <c r="F134" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G134" t="n">
+        <v>1.314777438301466</v>
+      </c>
+      <c r="H134" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I134" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -3144,6 +4356,15 @@
       <c r="F135" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G135" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H135" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I135" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -3164,6 +4385,15 @@
       <c r="F136" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G136" t="n">
+        <v>2.182468169756391</v>
+      </c>
+      <c r="H136" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I136" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -3184,6 +4414,15 @@
       <c r="F137" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G137" t="n">
+        <v>1.196892243973677</v>
+      </c>
+      <c r="H137" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I137" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -3204,6 +4443,15 @@
       <c r="F138" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G138" t="n">
+        <v>1.708162557008343</v>
+      </c>
+      <c r="H138" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I138" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -3224,6 +4472,15 @@
       <c r="F139" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G139" t="n">
+        <v>1.628014351403106</v>
+      </c>
+      <c r="H139" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I139" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -3244,6 +4501,15 @@
       <c r="F140" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G140" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H140" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I140" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -3264,6 +4530,15 @@
       <c r="F141" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G141" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H141" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I141" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -3284,6 +4559,15 @@
       <c r="F142" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G142" t="n">
+        <v>0.6633964646315678</v>
+      </c>
+      <c r="H142" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I142" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -3304,6 +4588,15 @@
       <c r="F143" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G143" t="n">
+        <v>1.392880955538871</v>
+      </c>
+      <c r="H143" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I143" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -3324,6 +4617,15 @@
       <c r="F144" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G144" t="n">
+        <v>1.407389584535483</v>
+      </c>
+      <c r="H144" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I144" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -3344,6 +4646,15 @@
       <c r="F145" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G145" t="n">
+        <v>1.803488417456808</v>
+      </c>
+      <c r="H145" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I145" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -3364,6 +4675,15 @@
       <c r="F146" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G146" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H146" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I146" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -3384,6 +4704,15 @@
       <c r="F147" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G147" t="n">
+        <v>1.626144183998943</v>
+      </c>
+      <c r="H147" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I147" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -3404,6 +4733,15 @@
       <c r="F148" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G148" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H148" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I148" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -3424,6 +4762,15 @@
       <c r="F149" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G149" t="n">
+        <v>0.7626712286390318</v>
+      </c>
+      <c r="H149" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I149" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -3444,6 +4791,15 @@
       <c r="F150" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G150" t="n">
+        <v>1.183277971940558</v>
+      </c>
+      <c r="H150" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I150" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -3464,6 +4820,15 @@
       <c r="F151" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G151" t="n">
+        <v>0.6517446844113067</v>
+      </c>
+      <c r="H151" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I151" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -3484,6 +4849,15 @@
       <c r="F152" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G152" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H152" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I152" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -3504,6 +4878,15 @@
       <c r="F153" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G153" t="n">
+        <v>1.754361785093532</v>
+      </c>
+      <c r="H153" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I153" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -3524,6 +4907,15 @@
       <c r="F154" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G154" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H154" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I154" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -3544,6 +4936,15 @@
       <c r="F155" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G155" t="n">
+        <v>1.866236078840658</v>
+      </c>
+      <c r="H155" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I155" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -3564,6 +4965,15 @@
       <c r="F156" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G156" t="n">
+        <v>2.116874749219479</v>
+      </c>
+      <c r="H156" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I156" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -3584,6 +4994,15 @@
       <c r="F157" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G157" t="n">
+        <v>1.922439624702726</v>
+      </c>
+      <c r="H157" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I157" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -3604,6 +5023,15 @@
       <c r="F158" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G158" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H158" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I158" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -3624,6 +5052,15 @@
       <c r="F159" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G159" t="n">
+        <v>1.748435591754531</v>
+      </c>
+      <c r="H159" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I159" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -3644,6 +5081,15 @@
       <c r="F160" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G160" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H160" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I160" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -3664,6 +5110,15 @@
       <c r="F161" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G161" t="n">
+        <v>1.675082366493708</v>
+      </c>
+      <c r="H161" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I161" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -3684,6 +5139,15 @@
       <c r="F162" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G162" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H162" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I162" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -3704,6 +5168,15 @@
       <c r="F163" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G163" t="n">
+        <v>0.7834287000653283</v>
+      </c>
+      <c r="H163" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I163" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -3724,6 +5197,15 @@
       <c r="F164" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G164" t="n">
+        <v>1.503489775275507</v>
+      </c>
+      <c r="H164" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I164" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -3744,6 +5226,15 @@
       <c r="F165" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G165" t="n">
+        <v>1.063553139354351</v>
+      </c>
+      <c r="H165" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I165" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -3764,6 +5255,15 @@
       <c r="F166" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G166" t="n">
+        <v>1.142740464284034</v>
+      </c>
+      <c r="H166" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I166" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -3784,6 +5284,15 @@
       <c r="F167" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G167" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H167" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I167" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -3804,6 +5313,15 @@
       <c r="F168" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G168" t="n">
+        <v>1.568583571046513</v>
+      </c>
+      <c r="H168" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I168" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -3824,6 +5342,15 @@
       <c r="F169" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G169" t="n">
+        <v>1.57127748774239</v>
+      </c>
+      <c r="H169" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I169" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -3844,6 +5371,15 @@
       <c r="F170" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G170" t="n">
+        <v>1.755508660474974</v>
+      </c>
+      <c r="H170" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I170" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -3864,6 +5400,15 @@
       <c r="F171" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G171" t="n">
+        <v>1.509946030636794</v>
+      </c>
+      <c r="H171" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I171" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -3884,6 +5429,15 @@
       <c r="F172" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G172" t="n">
+        <v>0.9699909427626242</v>
+      </c>
+      <c r="H172" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I172" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -3904,6 +5458,15 @@
       <c r="F173" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G173" t="n">
+        <v>2.184533531442705</v>
+      </c>
+      <c r="H173" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I173" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -3924,6 +5487,15 @@
       <c r="F174" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G174" t="n">
+        <v>0.9275646885671149</v>
+      </c>
+      <c r="H174" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I174" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -3944,6 +5516,15 @@
       <c r="F175" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G175" t="n">
+        <v>0.7035380056446109</v>
+      </c>
+      <c r="H175" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I175" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -3964,6 +5545,15 @@
       <c r="F176" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G176" t="n">
+        <v>2.194203983851023</v>
+      </c>
+      <c r="H176" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I176" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -3984,6 +5574,15 @@
       <c r="F177" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G177" t="n">
+        <v>1.077087828854861</v>
+      </c>
+      <c r="H177" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I177" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -4004,6 +5603,15 @@
       <c r="F178" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G178" t="n">
+        <v>2.084694014077213</v>
+      </c>
+      <c r="H178" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I178" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -4024,6 +5632,15 @@
       <c r="F179" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G179" t="n">
+        <v>1.648216011264459</v>
+      </c>
+      <c r="H179" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I179" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -4044,6 +5661,15 @@
       <c r="F180" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G180" t="n">
+        <v>2.187839843015187</v>
+      </c>
+      <c r="H180" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I180" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -4064,6 +5690,15 @@
       <c r="F181" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G181" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H181" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I181" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -4084,6 +5719,15 @@
       <c r="F182" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G182" t="n">
+        <v>2.202464020839884</v>
+      </c>
+      <c r="H182" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I182" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -4104,6 +5748,15 @@
       <c r="F183" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G183" t="n">
+        <v>1.323386796584227</v>
+      </c>
+      <c r="H183" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I183" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -4124,6 +5777,15 @@
       <c r="F184" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G184" t="n">
+        <v>0.679106006415075</v>
+      </c>
+      <c r="H184" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I184" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -4144,6 +5806,15 @@
       <c r="F185" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G185" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H185" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I185" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -4164,6 +5835,15 @@
       <c r="F186" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G186" t="n">
+        <v>0.8362584779510427</v>
+      </c>
+      <c r="H186" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I186" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -4184,6 +5864,15 @@
       <c r="F187" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G187" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H187" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I187" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -4204,6 +5893,15 @@
       <c r="F188" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G188" t="n">
+        <v>1.121935036700958</v>
+      </c>
+      <c r="H188" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I188" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -4224,6 +5922,15 @@
       <c r="F189" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G189" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H189" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I189" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -4244,6 +5951,15 @@
       <c r="F190" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G190" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H190" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I190" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -4264,6 +5980,15 @@
       <c r="F191" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G191" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H191" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I191" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -4284,6 +6009,15 @@
       <c r="F192" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G192" t="n">
+        <v>2.054610214505229</v>
+      </c>
+      <c r="H192" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I192" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -4304,6 +6038,15 @@
       <c r="F193" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G193" t="n">
+        <v>1.251378476785087</v>
+      </c>
+      <c r="H193" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I193" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -4324,6 +6067,15 @@
       <c r="F194" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G194" t="n">
+        <v>1.781971827925238</v>
+      </c>
+      <c r="H194" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I194" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -4344,6 +6096,15 @@
       <c r="F195" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G195" t="n">
+        <v>1.926764441573748</v>
+      </c>
+      <c r="H195" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I195" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -4364,6 +6125,15 @@
       <c r="F196" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G196" t="n">
+        <v>0.6480586493715658</v>
+      </c>
+      <c r="H196" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I196" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -4384,6 +6154,15 @@
       <c r="F197" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G197" t="n">
+        <v>1.75230471589897</v>
+      </c>
+      <c r="H197" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I197" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -4404,6 +6183,15 @@
       <c r="F198" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G198" t="n">
+        <v>1.432744468929398</v>
+      </c>
+      <c r="H198" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I198" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -4424,6 +6212,15 @@
       <c r="F199" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G199" t="n">
+        <v>0.7320228231766878</v>
+      </c>
+      <c r="H199" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I199" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -4444,6 +6241,15 @@
       <c r="F200" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G200" t="n">
+        <v>0.6408336174922226</v>
+      </c>
+      <c r="H200" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I200" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -4464,6 +6270,15 @@
       <c r="F201" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G201" t="n">
+        <v>1.861159756922506</v>
+      </c>
+      <c r="H201" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I201" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -4484,6 +6299,15 @@
       <c r="F202" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G202" t="n">
+        <v>2.303503882912417</v>
+      </c>
+      <c r="H202" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I202" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -4504,6 +6328,15 @@
       <c r="F203" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G203" t="n">
+        <v>2.007780194044655</v>
+      </c>
+      <c r="H203" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I203" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -4524,6 +6357,15 @@
       <c r="F204" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G204" t="n">
+        <v>1.334745525895242</v>
+      </c>
+      <c r="H204" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I204" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -4544,6 +6386,15 @@
       <c r="F205" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G205" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H205" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I205" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -4564,6 +6415,15 @@
       <c r="F206" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G206" t="n">
+        <v>0.784759451337025</v>
+      </c>
+      <c r="H206" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I206" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -4584,6 +6444,15 @@
       <c r="F207" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G207" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H207" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I207" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -4604,6 +6473,15 @@
       <c r="F208" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G208" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H208" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I208" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -4624,6 +6502,15 @@
       <c r="F209" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G209" t="n">
+        <v>1.475723757611916</v>
+      </c>
+      <c r="H209" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I209" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -4644,6 +6531,15 @@
       <c r="F210" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G210" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H210" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I210" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -4664,6 +6560,15 @@
       <c r="F211" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G211" t="n">
+        <v>1.058419668582413</v>
+      </c>
+      <c r="H211" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I211" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -4684,6 +6589,15 @@
       <c r="F212" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G212" t="n">
+        <v>0.6847821289765642</v>
+      </c>
+      <c r="H212" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I212" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -4704,6 +6618,15 @@
       <c r="F213" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G213" t="n">
+        <v>0.6469946064214273</v>
+      </c>
+      <c r="H213" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I213" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -4724,6 +6647,15 @@
       <c r="F214" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G214" t="n">
+        <v>2.011748478515789</v>
+      </c>
+      <c r="H214" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I214" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -4744,6 +6676,15 @@
       <c r="F215" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G215" t="n">
+        <v>0.6946602490949243</v>
+      </c>
+      <c r="H215" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I215" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -4764,6 +6705,15 @@
       <c r="F216" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G216" t="n">
+        <v>1.955162489000644</v>
+      </c>
+      <c r="H216" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I216" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -4784,6 +6734,15 @@
       <c r="F217" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G217" t="n">
+        <v>0.7812595696083858</v>
+      </c>
+      <c r="H217" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I217" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -4804,6 +6763,15 @@
       <c r="F218" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G218" t="n">
+        <v>0.7423656698866929</v>
+      </c>
+      <c r="H218" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I218" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -4824,6 +6792,15 @@
       <c r="F219" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G219" t="n">
+        <v>1.855991395272371</v>
+      </c>
+      <c r="H219" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I219" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -4844,6 +6821,15 @@
       <c r="F220" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G220" t="n">
+        <v>1.937140972341018</v>
+      </c>
+      <c r="H220" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I220" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -4864,6 +6850,15 @@
       <c r="F221" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G221" t="n">
+        <v>1.907481759756722</v>
+      </c>
+      <c r="H221" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I221" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -4884,6 +6879,15 @@
       <c r="F222" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G222" t="n">
+        <v>1.78785979979623</v>
+      </c>
+      <c r="H222" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I222" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -4904,6 +6908,15 @@
       <c r="F223" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G223" t="n">
+        <v>1.149742805781145</v>
+      </c>
+      <c r="H223" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I223" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -4924,6 +6937,15 @@
       <c r="F224" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G224" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H224" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I224" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -4944,6 +6966,15 @@
       <c r="F225" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G225" t="n">
+        <v>0.03191128231363013</v>
+      </c>
+      <c r="H225" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I225" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -4964,6 +6995,15 @@
       <c r="F226" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G226" t="n">
+        <v>2.145433570658061</v>
+      </c>
+      <c r="H226" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I226" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -4984,6 +7024,15 @@
       <c r="F227" t="n">
         <v>-0.1537767071766978</v>
       </c>
+      <c r="G227" t="n">
+        <v>1.615491528957416</v>
+      </c>
+      <c r="H227" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I227" t="n">
+        <v>-0.1415611169360382</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -5003,6 +7052,15 @@
       </c>
       <c r="F228" t="n">
         <v>-0.1537767071766978</v>
+      </c>
+      <c r="G228" t="n">
+        <v>1.908143181488957</v>
+      </c>
+      <c r="H228" t="n">
+        <v>-0.6902344702766531</v>
+      </c>
+      <c r="I228" t="n">
+        <v>-0.1415611169360382</v>
       </c>
     </row>
   </sheetData>

--- a/comparaison.xlsx
+++ b/comparaison.xlsx
@@ -482,7 +482,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B2" t="n">
         <v>-0.8990728516005086</v>
@@ -491,7 +491,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E2" t="n">
         <v>-0.7052171931401728</v>
@@ -500,7 +500,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H2" t="n">
         <v>-0.6902344702766531</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1269740908500122</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B3" t="n">
         <v>-0.8990728516005086</v>
@@ -520,7 +520,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8618920524422382</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E3" t="n">
         <v>-0.7052171931401728</v>
@@ -529,7 +529,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8618611165366722</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H3" t="n">
         <v>-0.6902344702766531</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.08554759591665646</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B4" t="n">
         <v>-0.8990728516005086</v>
@@ -549,7 +549,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D4" t="n">
-        <v>1.053749708348039</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E4" t="n">
         <v>-0.7052171931401728</v>
@@ -558,7 +558,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G4" t="n">
-        <v>1.053697708758778</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H4" t="n">
         <v>-0.6902344702766531</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.349043016513981</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B5" t="n">
         <v>-0.8990728516005086</v>
@@ -578,7 +578,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D5" t="n">
-        <v>2.0475599227901</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E5" t="n">
         <v>-0.7052171931401728</v>
@@ -587,7 +587,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G5" t="n">
-        <v>2.047420729004328</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H5" t="n">
         <v>-0.6902344702766531</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.445316231500498</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B6" t="n">
         <v>-0.8990728516005086</v>
@@ -607,7 +607,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D6" t="n">
-        <v>2.168330492276237</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E6" t="n">
         <v>-0.7052171931401728</v>
@@ -616,7 +616,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G6" t="n">
-        <v>2.168182116141764</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H6" t="n">
         <v>-0.6902344702766531</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.368048255310993</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B7" t="n">
         <v>-0.8990728516005086</v>
@@ -636,7 +636,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D7" t="n">
-        <v>2.048309246814116</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E7" t="n">
         <v>-0.7052171931401728</v>
@@ -645,7 +645,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G7" t="n">
-        <v>2.048165765220837</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H7" t="n">
         <v>-0.6902344702766531</v>
@@ -656,7 +656,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.8460180478476007</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B8" t="n">
         <v>-0.8990728516005086</v>
@@ -665,7 +665,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D8" t="n">
-        <v>1.704412007954104</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E8" t="n">
         <v>-0.7052171931401728</v>
@@ -674,7 +674,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G8" t="n">
-        <v>1.704357210487399</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H8" t="n">
         <v>-0.6902344702766531</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.5698251315969542</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B9" t="n">
         <v>-0.8990728516005086</v>
@@ -694,7 +694,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D9" t="n">
-        <v>1.385698372611621</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E9" t="n">
         <v>-0.7052171931401728</v>
@@ -703,7 +703,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G9" t="n">
-        <v>1.385586970679686</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H9" t="n">
         <v>-0.6902344702766531</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B10" t="n">
         <v>-0.8990728516005086</v>
@@ -723,7 +723,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D10" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E10" t="n">
         <v>-0.7052171931401728</v>
@@ -732,7 +732,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H10" t="n">
         <v>-0.6902344702766531</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.6160395685012087</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B11" t="n">
         <v>-0.8990728516005086</v>
@@ -752,7 +752,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D11" t="n">
-        <v>1.482730386550241</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E11" t="n">
         <v>-0.7052171931401728</v>
@@ -761,7 +761,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G11" t="n">
-        <v>1.482612951138928</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H11" t="n">
         <v>-0.6902344702766531</v>
@@ -772,7 +772,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B12" t="n">
         <v>-0.8990728516005086</v>
@@ -781,7 +781,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D12" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E12" t="n">
         <v>-0.7052171931401728</v>
@@ -790,7 +790,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H12" t="n">
         <v>-0.6902344702766531</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2213248097030694</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B13" t="n">
         <v>-0.8990728516005086</v>
@@ -810,7 +810,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D13" t="n">
-        <v>1.28985363478026</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E13" t="n">
         <v>-0.7052171931401728</v>
@@ -819,7 +819,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G13" t="n">
-        <v>1.289831368224238</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H13" t="n">
         <v>-0.6902344702766531</v>
@@ -830,7 +830,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.7720295734445309</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B14" t="n">
         <v>-0.8990728516005086</v>
@@ -839,7 +839,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D14" t="n">
-        <v>1.551050540682708</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E14" t="n">
         <v>-0.7052171931401728</v>
@@ -848,7 +848,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G14" t="n">
-        <v>1.550980367259557</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H14" t="n">
         <v>-0.6902344702766531</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.64958827204945</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B15" t="n">
         <v>-0.8990728516005086</v>
@@ -868,7 +868,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D15" t="n">
-        <v>1.527257538602901</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E15" t="n">
         <v>-0.7052171931401728</v>
@@ -877,7 +877,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G15" t="n">
-        <v>1.527178229090938</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H15" t="n">
         <v>-0.6902344702766531</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.2892587286912418</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B16" t="n">
         <v>-0.8990728516005086</v>
@@ -897,7 +897,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8023158208918645</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E16" t="n">
         <v>-0.7052171931401728</v>
@@ -906,7 +906,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8022976774624736</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H16" t="n">
         <v>-0.6902344702766531</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B17" t="n">
         <v>-0.8990728516005086</v>
@@ -926,7 +926,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D17" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E17" t="n">
         <v>-0.7052171931401728</v>
@@ -935,7 +935,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H17" t="n">
         <v>-0.6902344702766531</v>
@@ -946,7 +946,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.221110208041704</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B18" t="n">
         <v>-0.8990728516005086</v>
@@ -955,7 +955,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D18" t="n">
-        <v>1.963318911429892</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E18" t="n">
         <v>-0.7052171931401728</v>
@@ -964,7 +964,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G18" t="n">
-        <v>1.963127944394828</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H18" t="n">
         <v>-0.6902344702766531</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.1577314060655407</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B19" t="n">
         <v>-0.8990728516005086</v>
@@ -984,7 +984,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D19" t="n">
-        <v>1.168033936042663</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E19" t="n">
         <v>-0.7052171931401728</v>
@@ -993,7 +993,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G19" t="n">
-        <v>1.168011721520443</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H19" t="n">
         <v>-0.6902344702766531</v>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.7580757263992134</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B20" t="n">
         <v>-0.8990728516005086</v>
@@ -1013,7 +1013,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6052614268702182</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E20" t="n">
         <v>-0.7052171931401728</v>
@@ -1022,7 +1022,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6052599338128823</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H20" t="n">
         <v>-0.6902344702766531</v>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B21" t="n">
         <v>-0.8990728516005086</v>
@@ -1042,7 +1042,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D21" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E21" t="n">
         <v>-0.7052171931401728</v>
@@ -1051,7 +1051,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H21" t="n">
         <v>-0.6902344702766531</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.05170695211396685</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B22" t="n">
         <v>-0.8990728516005086</v>
@@ -1071,7 +1071,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D22" t="n">
-        <v>1.011584810750916</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E22" t="n">
         <v>-0.7052171931401728</v>
@@ -1080,7 +1080,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G22" t="n">
-        <v>1.011560820622598</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H22" t="n">
         <v>-0.6902344702766531</v>
@@ -1091,7 +1091,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B23" t="n">
         <v>-0.8990728516005086</v>
@@ -1100,7 +1100,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D23" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E23" t="n">
         <v>-0.7052171931401728</v>
@@ -1109,7 +1109,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H23" t="n">
         <v>-0.6902344702766531</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.3869531676145716</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B24" t="n">
         <v>-0.8990728516005086</v>
@@ -1129,7 +1129,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D24" t="n">
-        <v>1.306617013335913</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E24" t="n">
         <v>-0.7052171931401728</v>
@@ -1138,7 +1138,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G24" t="n">
-        <v>1.306534012896557</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H24" t="n">
         <v>-0.6902344702766531</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B25" t="n">
         <v>-0.8990728516005086</v>
@@ -1158,7 +1158,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D25" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E25" t="n">
         <v>-0.7052171931401728</v>
@@ -1167,7 +1167,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H25" t="n">
         <v>-0.6902344702766531</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B26" t="n">
         <v>-0.8990728516005086</v>
@@ -1187,7 +1187,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D26" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E26" t="n">
         <v>-0.7052171931401728</v>
@@ -1196,7 +1196,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H26" t="n">
         <v>-0.6902344702766531</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.5248450181151556</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B27" t="n">
         <v>-0.8990728516005086</v>
@@ -1216,7 +1216,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7767649742358375</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E27" t="n">
         <v>-0.7052171931401728</v>
@@ -1225,7 +1225,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7767631809383153</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H27" t="n">
         <v>-0.6902344702766531</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.6831061101393719</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B28" t="n">
         <v>-0.8990728516005086</v>
@@ -1245,7 +1245,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D28" t="n">
-        <v>1.591161018598479</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E28" t="n">
         <v>-0.7052171931401728</v>
@@ -1254,7 +1254,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G28" t="n">
-        <v>1.591095142892136</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H28" t="n">
         <v>-0.6902344702766531</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1.346111738775388</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B29" t="n">
         <v>-0.8990728516005086</v>
@@ -1274,7 +1274,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D29" t="n">
-        <v>2.089784818788722</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E29" t="n">
         <v>-0.7052171931401728</v>
@@ -1283,7 +1283,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G29" t="n">
-        <v>2.08975970100035</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H29" t="n">
         <v>-0.6902344702766531</v>
@@ -1294,7 +1294,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.238668686287039</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B30" t="n">
         <v>-0.8990728516005086</v>
@@ -1303,7 +1303,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D30" t="n">
-        <v>1.929362567926853</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E30" t="n">
         <v>-0.7052171931401728</v>
@@ -1312,7 +1312,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G30" t="n">
-        <v>1.929216244033457</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H30" t="n">
         <v>-0.6902344702766531</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1.59879724067927</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B31" t="n">
         <v>-0.8990728516005086</v>
@@ -1332,7 +1332,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D31" t="n">
-        <v>2.182381251313807</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E31" t="n">
         <v>-0.7052171931401728</v>
@@ -1341,7 +1341,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G31" t="n">
-        <v>2.182191226950265</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H31" t="n">
         <v>-0.6902344702766531</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.07014712566418403</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B32" t="n">
         <v>-0.8990728516005086</v>
@@ -1361,7 +1361,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D32" t="n">
-        <v>1.030250362094691</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E32" t="n">
         <v>-0.7052171931401728</v>
@@ -1370,7 +1370,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G32" t="n">
-        <v>1.030235903543526</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H32" t="n">
         <v>-0.6902344702766531</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1.441015217782708</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B33" t="n">
         <v>-0.8990728516005086</v>
@@ -1390,7 +1390,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D33" t="n">
-        <v>2.209477325492923</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E33" t="n">
         <v>-0.7052171931401728</v>
@@ -1399,7 +1399,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G33" t="n">
-        <v>2.209382867873103</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H33" t="n">
         <v>-0.6902344702766531</v>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9194660014519942</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B34" t="n">
         <v>-0.8990728516005086</v>
@@ -1419,7 +1419,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D34" t="n">
-        <v>1.687224085282094</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E34" t="n">
         <v>-0.7052171931401728</v>
@@ -1428,7 +1428,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G34" t="n">
-        <v>1.687159155043878</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H34" t="n">
         <v>-0.6902344702766531</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.4239830473581711</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B35" t="n">
         <v>-0.8990728516005086</v>
@@ -1448,7 +1448,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7114520316637148</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E35" t="n">
         <v>-0.7052171931401728</v>
@@ -1457,7 +1457,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G35" t="n">
-        <v>0.711443379709923</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H35" t="n">
         <v>-0.6902344702766531</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B36" t="n">
         <v>-0.8990728516005086</v>
@@ -1477,7 +1477,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D36" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E36" t="n">
         <v>-0.7052171931401728</v>
@@ -1486,7 +1486,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G36" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H36" t="n">
         <v>-0.6902344702766531</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B37" t="n">
         <v>-0.8990728516005086</v>
@@ -1506,7 +1506,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D37" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E37" t="n">
         <v>-0.7052171931401728</v>
@@ -1515,7 +1515,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H37" t="n">
         <v>-0.6902344702766531</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.0448211092158918</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B38" t="n">
         <v>-0.8990728516005086</v>
@@ -1535,7 +1535,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D38" t="n">
-        <v>1.086082202786427</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E38" t="n">
         <v>-0.7052171931401728</v>
@@ -1544,7 +1544,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G38" t="n">
-        <v>1.086062902285718</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H38" t="n">
         <v>-0.6902344702766531</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.076081796185073</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B39" t="n">
         <v>-0.8990728516005086</v>
@@ -1564,7 +1564,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D39" t="n">
-        <v>1.976141976820973</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E39" t="n">
         <v>-0.7052171931401728</v>
@@ -1573,7 +1573,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G39" t="n">
-        <v>1.976093644857908</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H39" t="n">
         <v>-0.6902344702766531</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.09409255409334995</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B40" t="n">
         <v>-0.8990728516005086</v>
@@ -1593,7 +1593,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D40" t="n">
-        <v>1.11015330263524</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E40" t="n">
         <v>-0.7052171931401728</v>
@@ -1602,7 +1602,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G40" t="n">
-        <v>1.110114741352885</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H40" t="n">
         <v>-0.6902344702766531</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.415693132452575</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B41" t="n">
         <v>-0.8990728516005086</v>
@@ -1622,7 +1622,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D41" t="n">
-        <v>2.198791886058351</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E41" t="n">
         <v>-0.7052171931401728</v>
@@ -1631,7 +1631,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G41" t="n">
-        <v>2.198692239072768</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H41" t="n">
         <v>-0.6902344702766531</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.7202372949917794</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B42" t="n">
         <v>-0.8990728516005086</v>
@@ -1651,7 +1651,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D42" t="n">
-        <v>1.485643232198975</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E42" t="n">
         <v>-0.7052171931401728</v>
@@ -1660,7 +1660,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G42" t="n">
-        <v>1.485523535840831</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H42" t="n">
         <v>-0.6902344702766531</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.7462598042374026</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B43" t="n">
         <v>-0.8990728516005086</v>
@@ -1680,7 +1680,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D43" t="n">
-        <v>1.719258834047334</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E43" t="n">
         <v>-0.7052171931401728</v>
@@ -1689,7 +1689,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G43" t="n">
-        <v>1.719225689041326</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H43" t="n">
         <v>-0.6902344702766531</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.234239299558043</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B44" t="n">
         <v>-0.8990728516005086</v>
@@ -1709,7 +1709,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D44" t="n">
-        <v>2.016585970824891</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E44" t="n">
         <v>-0.7052171931401728</v>
@@ -1718,7 +1718,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G44" t="n">
-        <v>2.016526427758992</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H44" t="n">
         <v>-0.6902344702766531</v>
@@ -1729,7 +1729,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.475130118358304</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B45" t="n">
         <v>-0.8990728516005086</v>
@@ -1738,7 +1738,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D45" t="n">
-        <v>2.108386796322608</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E45" t="n">
         <v>-0.7052171931401728</v>
@@ -1747,7 +1747,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G45" t="n">
-        <v>2.108088360588119</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H45" t="n">
         <v>-0.6902344702766531</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.463579059039613</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B46" t="n">
         <v>-0.8990728516005086</v>
@@ -1767,7 +1767,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D46" t="n">
-        <v>2.164462340703205</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E46" t="n">
         <v>-0.7052171931401728</v>
@@ -1776,7 +1776,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G46" t="n">
-        <v>2.164332208190936</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H46" t="n">
         <v>-0.6902344702766531</v>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.443465741424058</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B47" t="n">
         <v>-0.8990728516005086</v>
@@ -1796,7 +1796,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D47" t="n">
-        <v>2.13965487593344</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E47" t="n">
         <v>-0.7052171931401728</v>
@@ -1805,7 +1805,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G47" t="n">
-        <v>2.13938823686014</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H47" t="n">
         <v>-0.6902344702766531</v>
@@ -1816,7 +1816,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.6776758597339545</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B48" t="n">
         <v>-0.8990728516005086</v>
@@ -1825,7 +1825,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D48" t="n">
-        <v>1.581895364428624</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E48" t="n">
         <v>-0.7052171931401728</v>
@@ -1834,7 +1834,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G48" t="n">
-        <v>1.581827429635341</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H48" t="n">
         <v>-0.6902344702766531</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.543438096787578</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B49" t="n">
         <v>-0.8990728516005086</v>
@@ -1854,7 +1854,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D49" t="n">
-        <v>2.235088628489579</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E49" t="n">
         <v>-0.7052171931401728</v>
@@ -1863,7 +1863,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G49" t="n">
-        <v>2.234824160827521</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H49" t="n">
         <v>-0.6902344702766531</v>
@@ -1874,7 +1874,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.4006228823320306</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B50" t="n">
         <v>-0.8990728516005086</v>
@@ -1883,7 +1883,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D50" t="n">
-        <v>0.819347344457259</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E50" t="n">
         <v>-0.7052171931401728</v>
@@ -1892,7 +1892,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G50" t="n">
-        <v>0.8193393782665016</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H50" t="n">
         <v>-0.6902344702766531</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B51" t="n">
         <v>-0.8990728516005086</v>
@@ -1912,7 +1912,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D51" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E51" t="n">
         <v>-0.7052171931401728</v>
@@ -1921,7 +1921,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H51" t="n">
         <v>-0.6902344702766531</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.08153885540713307</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B52" t="n">
         <v>-0.8990728516005086</v>
@@ -1941,7 +1941,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9690154960740118</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E52" t="n">
         <v>-0.7052171931401728</v>
@@ -1950,7 +1950,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G52" t="n">
-        <v>0.9689952059060414</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H52" t="n">
         <v>-0.6902344702766531</v>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.7406879542196706</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B53" t="n">
         <v>-0.8990728516005086</v>
@@ -1970,7 +1970,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D53" t="n">
-        <v>1.642726604453706</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E53" t="n">
         <v>-0.7052171931401728</v>
@@ -1979,7 +1979,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G53" t="n">
-        <v>1.642649389623574</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H53" t="n">
         <v>-0.6902344702766531</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.9825681329550315</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B54" t="n">
         <v>-0.8990728516005086</v>
@@ -1999,7 +1999,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D54" t="n">
-        <v>1.902068632231429</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E54" t="n">
         <v>-0.7052171931401728</v>
@@ -2008,7 +2008,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G54" t="n">
-        <v>1.902064021447466</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H54" t="n">
         <v>-0.6902344702766531</v>
@@ -2019,7 +2019,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B55" t="n">
         <v>-0.8990728516005086</v>
@@ -2028,7 +2028,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D55" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E55" t="n">
         <v>-0.7052171931401728</v>
@@ -2037,7 +2037,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H55" t="n">
         <v>-0.6902344702766531</v>
@@ -2048,7 +2048,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.5410761233295207</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B56" t="n">
         <v>-0.8990728516005086</v>
@@ -2057,7 +2057,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D56" t="n">
-        <v>1.533663124027332</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E56" t="n">
         <v>-0.7052171931401728</v>
@@ -2066,7 +2066,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G56" t="n">
-        <v>1.533625527959871</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H56" t="n">
         <v>-0.6902344702766531</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.4970644558971779</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B57" t="n">
         <v>-0.8990728516005086</v>
@@ -2086,7 +2086,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D57" t="n">
-        <v>1.431168009827474</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E57" t="n">
         <v>-0.7052171931401728</v>
@@ -2095,7 +2095,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G57" t="n">
-        <v>1.431094764390627</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H57" t="n">
         <v>-0.6902344702766531</v>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B58" t="n">
         <v>-0.8990728516005086</v>
@@ -2115,7 +2115,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D58" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E58" t="n">
         <v>-0.7052171931401728</v>
@@ -2124,7 +2124,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H58" t="n">
         <v>-0.6902344702766531</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.8565716705416322</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B59" t="n">
         <v>-0.8990728516005086</v>
@@ -2144,7 +2144,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6460377380982305</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E59" t="n">
         <v>-0.7052171931401728</v>
@@ -2153,7 +2153,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G59" t="n">
-        <v>0.6460375338667779</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H59" t="n">
         <v>-0.6902344702766531</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.7148609495504905</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B60" t="n">
         <v>-0.8990728516005086</v>
@@ -2173,7 +2173,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D60" t="n">
-        <v>0.7424038058750695</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E60" t="n">
         <v>-0.7052171931401728</v>
@@ -2182,7 +2182,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G60" t="n">
-        <v>0.7424023702598161</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H60" t="n">
         <v>-0.6902344702766531</v>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.248892916899482</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B61" t="n">
         <v>-0.8990728516005086</v>
@@ -2202,7 +2202,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D61" t="n">
-        <v>1.922063325645565</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E61" t="n">
         <v>-0.7052171931401728</v>
@@ -2211,7 +2211,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G61" t="n">
-        <v>1.921878856975497</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H61" t="n">
         <v>-0.6902344702766531</v>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.08815412194728089</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B62" t="n">
         <v>-0.8990728516005086</v>
@@ -2231,7 +2231,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9924951631259371</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E62" t="n">
         <v>-0.7052171931401728</v>
@@ -2240,7 +2240,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G62" t="n">
-        <v>0.9924749596676642</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H62" t="n">
         <v>-0.6902344702766531</v>
@@ -2251,7 +2251,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.7126544978961208</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B63" t="n">
         <v>-0.8990728516005086</v>
@@ -2260,7 +2260,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D63" t="n">
-        <v>0.661784780143763</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E63" t="n">
         <v>-0.7052171931401728</v>
@@ -2269,7 +2269,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G63" t="n">
-        <v>0.6617818642986956</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H63" t="n">
         <v>-0.6902344702766531</v>
@@ -2280,7 +2280,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.1832042251114607</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B64" t="n">
         <v>-0.8990728516005086</v>
@@ -2289,7 +2289,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D64" t="n">
-        <v>1.179983257302107</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E64" t="n">
         <v>-0.7052171931401728</v>
@@ -2298,7 +2298,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G64" t="n">
-        <v>1.1799717646305</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H64" t="n">
         <v>-0.6902344702766531</v>
@@ -2309,7 +2309,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B65" t="n">
         <v>-0.8990728516005086</v>
@@ -2318,7 +2318,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D65" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E65" t="n">
         <v>-0.7052171931401728</v>
@@ -2327,7 +2327,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H65" t="n">
         <v>-0.6902344702766531</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.724696320925902</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B66" t="n">
         <v>-0.8990728516005086</v>
@@ -2347,7 +2347,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D66" t="n">
-        <v>2.354017071946119</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E66" t="n">
         <v>-0.7052171931401728</v>
@@ -2356,7 +2356,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G66" t="n">
-        <v>2.353895687818954</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H66" t="n">
         <v>-0.6902344702766531</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B67" t="n">
         <v>-0.8990728516005086</v>
@@ -2376,7 +2376,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D67" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E67" t="n">
         <v>-0.7052171931401728</v>
@@ -2385,7 +2385,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H67" t="n">
         <v>-0.6902344702766531</v>
@@ -2396,7 +2396,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B68" t="n">
         <v>-0.8990728516005086</v>
@@ -2405,7 +2405,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D68" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E68" t="n">
         <v>-0.7052171931401728</v>
@@ -2414,7 +2414,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H68" t="n">
         <v>-0.6902344702766531</v>
@@ -2425,7 +2425,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.0690342403856334</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B69" t="n">
         <v>-0.8990728516005086</v>
@@ -2434,7 +2434,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D69" t="n">
-        <v>1.069084846845985</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E69" t="n">
         <v>-0.7052171931401728</v>
@@ -2443,7 +2443,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G69" t="n">
-        <v>1.069070590390638</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H69" t="n">
         <v>-0.6902344702766531</v>
@@ -2454,7 +2454,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.8095223721130242</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B70" t="n">
         <v>-0.8990728516005086</v>
@@ -2463,7 +2463,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6488140331100495</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E70" t="n">
         <v>-0.7052171931401728</v>
@@ -2472,7 +2472,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G70" t="n">
-        <v>0.6488130187454001</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H70" t="n">
         <v>-0.6902344702766531</v>
@@ -2483,7 +2483,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B71" t="n">
         <v>-0.8990728516005086</v>
@@ -2492,7 +2492,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D71" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E71" t="n">
         <v>-0.7052171931401728</v>
@@ -2501,7 +2501,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H71" t="n">
         <v>-0.6902344702766531</v>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.617032590242051</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B72" t="n">
         <v>-0.8990728516005086</v>
@@ -2521,7 +2521,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D72" t="n">
-        <v>2.294191130974382</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E72" t="n">
         <v>-0.7052171931401728</v>
@@ -2530,7 +2530,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G72" t="n">
-        <v>2.293916744923938</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H72" t="n">
         <v>-0.6902344702766531</v>
@@ -2541,7 +2541,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B73" t="n">
         <v>-0.8990728516005086</v>
@@ -2550,7 +2550,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D73" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E73" t="n">
         <v>-0.7052171931401728</v>
@@ -2559,7 +2559,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H73" t="n">
         <v>-0.6902344702766531</v>
@@ -2570,7 +2570,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B74" t="n">
         <v>-0.8990728516005086</v>
@@ -2579,7 +2579,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D74" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E74" t="n">
         <v>-0.7052171931401728</v>
@@ -2588,7 +2588,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H74" t="n">
         <v>-0.6902344702766531</v>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.8022961684666584</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B75" t="n">
         <v>-0.8990728516005086</v>
@@ -2608,7 +2608,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D75" t="n">
-        <v>1.67112326525763</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E75" t="n">
         <v>-0.7052171931401728</v>
@@ -2617,7 +2617,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G75" t="n">
-        <v>1.671000271549387</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H75" t="n">
         <v>-0.6902344702766531</v>
@@ -2628,7 +2628,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.540226167142393</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B76" t="n">
         <v>-0.8990728516005086</v>
@@ -2637,7 +2637,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D76" t="n">
-        <v>0.7668934868715021</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E76" t="n">
         <v>-0.7052171931401728</v>
@@ -2646,7 +2646,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G76" t="n">
-        <v>0.7668891241549038</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H76" t="n">
         <v>-0.6902344702766531</v>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B77" t="n">
         <v>-0.8990728516005086</v>
@@ -2666,7 +2666,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D77" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E77" t="n">
         <v>-0.7052171931401728</v>
@@ -2675,7 +2675,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H77" t="n">
         <v>-0.6902344702766531</v>
@@ -2686,7 +2686,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.5337450693444443</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B78" t="n">
         <v>-0.8990728516005086</v>
@@ -2695,7 +2695,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D78" t="n">
-        <v>0.7972836862785193</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E78" t="n">
         <v>-0.7052171931401728</v>
@@ -2704,7 +2704,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G78" t="n">
-        <v>0.7972826132802504</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H78" t="n">
         <v>-0.6902344702766531</v>
@@ -2715,7 +2715,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.3129042012461893</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B79" t="n">
         <v>-0.8990728516005086</v>
@@ -2724,7 +2724,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D79" t="n">
-        <v>1.196289988327129</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E79" t="n">
         <v>-0.7052171931401728</v>
@@ -2733,7 +2733,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G79" t="n">
-        <v>1.196211266203747</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H79" t="n">
         <v>-0.6902344702766531</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1.502506097731125</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B80" t="n">
         <v>-0.8990728516005086</v>
@@ -2753,7 +2753,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D80" t="n">
-        <v>2.269564659584192</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E80" t="n">
         <v>-0.7052171931401728</v>
@@ -2762,7 +2762,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G80" t="n">
-        <v>2.269503736314909</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H80" t="n">
         <v>-0.6902344702766531</v>
@@ -2773,7 +2773,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.07169931963517324</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B81" t="n">
         <v>-0.8990728516005086</v>
@@ -2782,7 +2782,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9733002685233952</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E81" t="n">
         <v>-0.7052171931401728</v>
@@ -2791,7 +2791,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G81" t="n">
-        <v>0.9732676059753157</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H81" t="n">
         <v>-0.6902344702766531</v>
@@ -2802,7 +2802,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.6191758790970507</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B82" t="n">
         <v>-0.8990728516005086</v>
@@ -2811,7 +2811,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D82" t="n">
-        <v>1.511302193973447</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E82" t="n">
         <v>-0.7052171931401728</v>
@@ -2820,7 +2820,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G82" t="n">
-        <v>1.511239624880478</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H82" t="n">
         <v>-0.6902344702766531</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.5237506808996617</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B83" t="n">
         <v>-0.8990728516005086</v>
@@ -2840,7 +2840,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D83" t="n">
-        <v>0.768970188387278</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E83" t="n">
         <v>-0.7052171931401728</v>
@@ -2849,7 +2849,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G83" t="n">
-        <v>0.7689668300383447</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H83" t="n">
         <v>-0.6902344702766531</v>
@@ -2860,7 +2860,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.4257130109021914</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B84" t="n">
         <v>-0.8990728516005086</v>
@@ -2869,7 +2869,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D84" t="n">
-        <v>1.454971048847709</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E84" t="n">
         <v>-0.7052171931401728</v>
@@ -2878,7 +2878,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G84" t="n">
-        <v>1.454945860923107</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H84" t="n">
         <v>-0.6902344702766531</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B85" t="n">
         <v>-0.8990728516005086</v>
@@ -2898,7 +2898,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D85" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E85" t="n">
         <v>-0.7052171931401728</v>
@@ -2907,7 +2907,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H85" t="n">
         <v>-0.6902344702766531</v>
@@ -2918,7 +2918,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.277658396851383</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B86" t="n">
         <v>-0.8990728516005086</v>
@@ -2927,7 +2927,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9254956879970746</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E86" t="n">
         <v>-0.7052171931401728</v>
@@ -2936,7 +2936,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G86" t="n">
-        <v>0.9254914792126695</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H86" t="n">
         <v>-0.6902344702766531</v>
@@ -2947,7 +2947,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1.614700703254944</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B87" t="n">
         <v>-0.8990728516005086</v>
@@ -2956,7 +2956,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D87" t="n">
-        <v>2.212878070438323</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E87" t="n">
         <v>-0.7052171931401728</v>
@@ -2965,7 +2965,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G87" t="n">
-        <v>2.212630950540216</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H87" t="n">
         <v>-0.6902344702766531</v>
@@ -2976,7 +2976,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B88" t="n">
         <v>-0.8990728516005086</v>
@@ -2985,7 +2985,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D88" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E88" t="n">
         <v>-0.7052171931401728</v>
@@ -2994,7 +2994,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H88" t="n">
         <v>-0.6902344702766531</v>
@@ -3005,7 +3005,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1.192441996131536</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B89" t="n">
         <v>-0.8990728516005086</v>
@@ -3014,7 +3014,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D89" t="n">
-        <v>1.979788463666998</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E89" t="n">
         <v>-0.7052171931401728</v>
@@ -3023,7 +3023,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G89" t="n">
-        <v>1.97973366773934</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H89" t="n">
         <v>-0.6902344702766531</v>
@@ -3034,7 +3034,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B90" t="n">
         <v>-0.8990728516005086</v>
@@ -3043,7 +3043,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D90" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E90" t="n">
         <v>-0.7052171931401728</v>
@@ -3052,7 +3052,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H90" t="n">
         <v>-0.6902344702766531</v>
@@ -3063,7 +3063,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.5091730410815704</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B91" t="n">
         <v>-0.8990728516005086</v>
@@ -3072,7 +3072,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7753554717057678</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E91" t="n">
         <v>-0.7052171931401728</v>
@@ -3081,7 +3081,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G91" t="n">
-        <v>0.7753491731496546</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H91" t="n">
         <v>-0.6902344702766531</v>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.6807934381531094</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B92" t="n">
         <v>-0.8990728516005086</v>
@@ -3101,7 +3101,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D92" t="n">
-        <v>1.595026158782286</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E92" t="n">
         <v>-0.7052171931401728</v>
@@ -3110,7 +3110,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G92" t="n">
-        <v>1.59498571785907</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H92" t="n">
         <v>-0.6902344702766531</v>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.2910593827954517</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B93" t="n">
         <v>-0.8990728516005086</v>
@@ -3130,7 +3130,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D93" t="n">
-        <v>1.327721796813313</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E93" t="n">
         <v>-0.7052171931401728</v>
@@ -3139,7 +3139,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G93" t="n">
-        <v>1.327704875944958</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H93" t="n">
         <v>-0.6902344702766531</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B94" t="n">
         <v>-0.8990728516005086</v>
@@ -3159,7 +3159,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D94" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E94" t="n">
         <v>-0.7052171931401728</v>
@@ -3168,7 +3168,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H94" t="n">
         <v>-0.6902344702766531</v>
@@ -3179,7 +3179,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.1963148199329054</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B95" t="n">
         <v>-0.8990728516005086</v>
@@ -3188,7 +3188,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D95" t="n">
-        <v>1.18896588790527</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E95" t="n">
         <v>-0.7052171931401728</v>
@@ -3197,7 +3197,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G95" t="n">
-        <v>1.18895372232092</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H95" t="n">
         <v>-0.6902344702766531</v>
@@ -3208,7 +3208,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B96" t="n">
         <v>-0.8990728516005086</v>
@@ -3217,7 +3217,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D96" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E96" t="n">
         <v>-0.7052171931401728</v>
@@ -3226,7 +3226,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H96" t="n">
         <v>-0.6902344702766531</v>
@@ -3237,7 +3237,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.1051051743258</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B97" t="n">
         <v>-0.8990728516005086</v>
@@ -3246,7 +3246,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D97" t="n">
-        <v>1.22851961944201</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E97" t="n">
         <v>-0.7052171931401728</v>
@@ -3255,7 +3255,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G97" t="n">
-        <v>1.228508490507294</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H97" t="n">
         <v>-0.6902344702766531</v>
@@ -3266,7 +3266,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B98" t="n">
         <v>-0.8990728516005086</v>
@@ -3275,7 +3275,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D98" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E98" t="n">
         <v>-0.7052171931401728</v>
@@ -3284,7 +3284,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H98" t="n">
         <v>-0.6902344702766531</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.5656059278218908</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B99" t="n">
         <v>-0.8990728516005086</v>
@@ -3304,7 +3304,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D99" t="n">
-        <v>1.460015054261608</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E99" t="n">
         <v>-0.7052171931401728</v>
@@ -3313,7 +3313,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G99" t="n">
-        <v>1.459940944033366</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H99" t="n">
         <v>-0.6902344702766531</v>
@@ -3324,7 +3324,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.6446719113757985</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B100" t="n">
         <v>-0.8990728516005086</v>
@@ -3333,7 +3333,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D100" t="n">
-        <v>1.628087447383073</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E100" t="n">
         <v>-0.7052171931401728</v>
@@ -3342,7 +3342,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G100" t="n">
-        <v>1.628054237949446</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H100" t="n">
         <v>-0.6902344702766531</v>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B101" t="n">
         <v>-0.8990728516005086</v>
@@ -3362,7 +3362,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D101" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E101" t="n">
         <v>-0.7052171931401728</v>
@@ -3371,7 +3371,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H101" t="n">
         <v>-0.6902344702766531</v>
@@ -3382,7 +3382,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.5497193536133916</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B102" t="n">
         <v>-0.8990728516005086</v>
@@ -3391,7 +3391,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D102" t="n">
-        <v>0.7428136981298217</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E102" t="n">
         <v>-0.7052171931401728</v>
@@ -3400,7 +3400,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G102" t="n">
-        <v>0.742811113236015</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H102" t="n">
         <v>-0.6902344702766531</v>
@@ -3411,7 +3411,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.7542570739589997</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B103" t="n">
         <v>-0.8990728516005086</v>
@@ -3420,7 +3420,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D103" t="n">
-        <v>0.666403380542693</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E103" t="n">
         <v>-0.7052171931401728</v>
@@ -3429,7 +3429,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G103" t="n">
-        <v>0.6664020421218793</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H103" t="n">
         <v>-0.6902344702766531</v>
@@ -3440,7 +3440,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.6665739244526613</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B104" t="n">
         <v>-0.8990728516005086</v>
@@ -3449,7 +3449,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D104" t="n">
-        <v>0.7452130325423655</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E104" t="n">
         <v>-0.7052171931401728</v>
@@ -3458,7 +3458,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G104" t="n">
-        <v>0.7452111105681906</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H104" t="n">
         <v>-0.6902344702766531</v>
@@ -3469,7 +3469,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.6987335450151574</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B105" t="n">
         <v>-0.8990728516005086</v>
@@ -3478,7 +3478,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D105" t="n">
-        <v>1.556055829683858</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E105" t="n">
         <v>-0.7052171931401728</v>
@@ -3487,7 +3487,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G105" t="n">
-        <v>1.555921703820589</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H105" t="n">
         <v>-0.6902344702766531</v>
@@ -3498,7 +3498,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.8161077101773095</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B106" t="n">
         <v>-0.8990728516005086</v>
@@ -3507,7 +3507,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D106" t="n">
-        <v>0.6792913633798208</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E106" t="n">
         <v>-0.7052171931401728</v>
@@ -3516,7 +3516,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G106" t="n">
-        <v>0.6792903610245224</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H106" t="n">
         <v>-0.6902344702766531</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.6797882027612919</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B107" t="n">
         <v>-0.8990728516005086</v>
@@ -3536,7 +3536,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D107" t="n">
-        <v>1.592181290036179</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E107" t="n">
         <v>-0.7052171931401728</v>
@@ -3545,7 +3545,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G107" t="n">
-        <v>1.592141551232939</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H107" t="n">
         <v>-0.6902344702766531</v>
@@ -3556,7 +3556,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1.725231065445478</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B108" t="n">
         <v>-0.8990728516005086</v>
@@ -3565,7 +3565,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D108" t="n">
-        <v>2.287759596419772</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E108" t="n">
         <v>-0.7052171931401728</v>
@@ -3574,7 +3574,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G108" t="n">
-        <v>2.287588606365889</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H108" t="n">
         <v>-0.6902344702766531</v>
@@ -3585,7 +3585,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.5612417185275936</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B109" t="n">
         <v>-0.8990728516005086</v>
@@ -3594,7 +3594,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D109" t="n">
-        <v>1.483225293834458</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E109" t="n">
         <v>-0.7052171931401728</v>
@@ -3603,7 +3603,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G109" t="n">
-        <v>1.483192835338609</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H109" t="n">
         <v>-0.6902344702766531</v>
@@ -3614,7 +3614,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.2419483641297863</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B110" t="n">
         <v>-0.8990728516005086</v>
@@ -3623,7 +3623,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D110" t="n">
-        <v>1.309220956166447</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E110" t="n">
         <v>-0.7052171931401728</v>
@@ -3632,7 +3632,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G110" t="n">
-        <v>1.309198668013228</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H110" t="n">
         <v>-0.6902344702766531</v>
@@ -3643,7 +3643,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B111" t="n">
         <v>-0.8990728516005086</v>
@@ -3652,7 +3652,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D111" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E111" t="n">
         <v>-0.7052171931401728</v>
@@ -3661,7 +3661,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H111" t="n">
         <v>-0.6902344702766531</v>
@@ -3672,7 +3672,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.1586724520591475</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B112" t="n">
         <v>-0.8990728516005086</v>
@@ -3681,7 +3681,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D112" t="n">
-        <v>0.8677436424342398</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E112" t="n">
         <v>-0.7052171931401728</v>
@@ -3690,7 +3690,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G112" t="n">
-        <v>0.8677237400275772</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H112" t="n">
         <v>-0.6902344702766531</v>
@@ -3701,7 +3701,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B113" t="n">
         <v>-0.8990728516005086</v>
@@ -3710,7 +3710,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D113" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E113" t="n">
         <v>-0.7052171931401728</v>
@@ -3719,7 +3719,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H113" t="n">
         <v>-0.6902344702766531</v>
@@ -3730,7 +3730,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.3796049619471972</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B114" t="n">
         <v>-0.8990728516005086</v>
@@ -3739,7 +3739,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7946900383028657</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E114" t="n">
         <v>-0.7052171931401728</v>
@@ -3748,7 +3748,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G114" t="n">
-        <v>0.7946869928665504</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H114" t="n">
         <v>-0.6902344702766531</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.5546085550697869</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B115" t="n">
         <v>-0.8990728516005086</v>
@@ -3768,7 +3768,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D115" t="n">
-        <v>0.8010647061858216</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E115" t="n">
         <v>-0.7052171931401728</v>
@@ -3777,7 +3777,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G115" t="n">
-        <v>0.8010620384091234</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H115" t="n">
         <v>-0.6902344702766531</v>
@@ -3788,7 +3788,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1.328402487508565</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B116" t="n">
         <v>-0.8990728516005086</v>
@@ -3797,7 +3797,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D116" t="n">
-        <v>2.006815782104444</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E116" t="n">
         <v>-0.7052171931401728</v>
@@ -3806,7 +3806,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G116" t="n">
-        <v>2.006595158588575</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H116" t="n">
         <v>-0.6902344702766531</v>
@@ -3817,7 +3817,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.5964870033752112</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B117" t="n">
         <v>-0.8990728516005086</v>
@@ -3826,7 +3826,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D117" t="n">
-        <v>1.555336432675203</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E117" t="n">
         <v>-0.7052171931401728</v>
@@ -3835,7 +3835,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G117" t="n">
-        <v>1.555306416398887</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H117" t="n">
         <v>-0.6902344702766531</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B118" t="n">
         <v>-0.8990728516005086</v>
@@ -3855,7 +3855,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D118" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E118" t="n">
         <v>-0.7052171931401728</v>
@@ -3864,7 +3864,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H118" t="n">
         <v>-0.6902344702766531</v>
@@ -3875,7 +3875,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B119" t="n">
         <v>-0.8990728516005086</v>
@@ -3884,7 +3884,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D119" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E119" t="n">
         <v>-0.7052171931401728</v>
@@ -3893,7 +3893,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H119" t="n">
         <v>-0.6902344702766531</v>
@@ -3904,7 +3904,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B120" t="n">
         <v>-0.8990728516005086</v>
@@ -3913,7 +3913,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D120" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E120" t="n">
         <v>-0.7052171931401728</v>
@@ -3922,7 +3922,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H120" t="n">
         <v>-0.6902344702766531</v>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.3788265618241241</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B121" t="n">
         <v>-0.8990728516005086</v>
@@ -3942,7 +3942,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D121" t="n">
-        <v>1.324836202343681</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E121" t="n">
         <v>-0.7052171931401728</v>
@@ -3951,7 +3951,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G121" t="n">
-        <v>1.324793055007326</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H121" t="n">
         <v>-0.6902344702766531</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1.67890840635522</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B122" t="n">
         <v>-0.8990728516005086</v>
@@ -3971,7 +3971,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D122" t="n">
-        <v>2.307321298068518</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E122" t="n">
         <v>-0.7052171931401728</v>
@@ -3980,7 +3980,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G122" t="n">
-        <v>2.307313869703001</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H122" t="n">
         <v>-0.6902344702766531</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.7234706916545932</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B123" t="n">
         <v>-0.8990728516005086</v>
@@ -4000,7 +4000,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D123" t="n">
-        <v>1.674503182899703</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E123" t="n">
         <v>-0.7052171931401728</v>
@@ -4009,7 +4009,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G123" t="n">
-        <v>1.674468380180661</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H123" t="n">
         <v>-0.6902344702766531</v>
@@ -4020,7 +4020,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B124" t="n">
         <v>-0.8990728516005086</v>
@@ -4029,7 +4029,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D124" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E124" t="n">
         <v>-0.7052171931401728</v>
@@ -4038,7 +4038,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G124" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H124" t="n">
         <v>-0.6902344702766531</v>
@@ -4049,7 +4049,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.7020644020925132</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B125" t="n">
         <v>-0.8990728516005086</v>
@@ -4058,7 +4058,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D125" t="n">
-        <v>1.54705400882577</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E125" t="n">
         <v>-0.7052171931401728</v>
@@ -4067,7 +4067,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G125" t="n">
-        <v>1.54700236805772</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H125" t="n">
         <v>-0.6902344702766531</v>
@@ -4078,7 +4078,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.06411049463163965</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B126" t="n">
         <v>-0.8990728516005086</v>
@@ -4087,7 +4087,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D126" t="n">
-        <v>1.036568805014537</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E126" t="n">
         <v>-0.7052171931401728</v>
@@ -4096,7 +4096,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G126" t="n">
-        <v>1.036515643879095</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H126" t="n">
         <v>-0.6902344702766531</v>
@@ -4107,7 +4107,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.3783096254368765</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B127" t="n">
         <v>-0.8990728516005086</v>
@@ -4116,7 +4116,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D127" t="n">
-        <v>0.7540006474344491</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E127" t="n">
         <v>-0.7052171931401728</v>
@@ -4125,7 +4125,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G127" t="n">
-        <v>0.7539853850768938</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H127" t="n">
         <v>-0.6902344702766531</v>
@@ -4136,7 +4136,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1.092728906880701</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B128" t="n">
         <v>-0.8990728516005086</v>
@@ -4145,7 +4145,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D128" t="n">
-        <v>1.98774797360259</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E128" t="n">
         <v>-0.7052171931401728</v>
@@ -4154,7 +4154,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G128" t="n">
-        <v>1.98771447124096</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H128" t="n">
         <v>-0.6902344702766531</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B129" t="n">
         <v>-0.8990728516005086</v>
@@ -4174,7 +4174,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D129" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E129" t="n">
         <v>-0.7052171931401728</v>
@@ -4183,7 +4183,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G129" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H129" t="n">
         <v>-0.6902344702766531</v>
@@ -4194,7 +4194,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.1500572466941809</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B130" t="n">
         <v>-0.8990728516005086</v>
@@ -4203,7 +4203,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D130" t="n">
-        <v>0.8442337675100243</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E130" t="n">
         <v>-0.7052171931401728</v>
@@ -4212,7 +4212,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G130" t="n">
-        <v>0.8441951793826185</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H130" t="n">
         <v>-0.6902344702766531</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.3720710914809693</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B131" t="n">
         <v>-0.8990728516005086</v>
@@ -4232,7 +4232,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D131" t="n">
-        <v>1.363614011344637</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E131" t="n">
         <v>-0.7052171931401728</v>
@@ -4241,7 +4241,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G131" t="n">
-        <v>1.363579447281229</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H131" t="n">
         <v>-0.6902344702766531</v>
@@ -4252,7 +4252,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B132" t="n">
         <v>-0.8990728516005086</v>
@@ -4261,7 +4261,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D132" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E132" t="n">
         <v>-0.7052171931401728</v>
@@ -4270,7 +4270,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G132" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H132" t="n">
         <v>-0.6902344702766531</v>
@@ -4281,7 +4281,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.1430760519259602</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B133" t="n">
         <v>-0.8990728516005086</v>
@@ -4290,7 +4290,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D133" t="n">
-        <v>0.9756346531804492</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E133" t="n">
         <v>-0.7052171931401728</v>
@@ -4299,7 +4299,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G133" t="n">
-        <v>0.9755668859124572</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H133" t="n">
         <v>-0.6902344702766531</v>
@@ -4310,7 +4310,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.5452370466758798</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B134" t="n">
         <v>-0.8990728516005086</v>
@@ -4319,7 +4319,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D134" t="n">
-        <v>1.314931838523126</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E134" t="n">
         <v>-0.7052171931401728</v>
@@ -4328,7 +4328,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G134" t="n">
-        <v>1.314777438301466</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H134" t="n">
         <v>-0.6902344702766531</v>
@@ -4339,7 +4339,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B135" t="n">
         <v>-0.8990728516005086</v>
@@ -4348,7 +4348,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D135" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E135" t="n">
         <v>-0.7052171931401728</v>
@@ -4357,7 +4357,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G135" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H135" t="n">
         <v>-0.6902344702766531</v>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1.474338094900663</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B136" t="n">
         <v>-0.8990728516005086</v>
@@ -4377,7 +4377,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D136" t="n">
-        <v>2.182508868572076</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E136" t="n">
         <v>-0.7052171931401728</v>
@@ -4386,7 +4386,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G136" t="n">
-        <v>2.182468169756391</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H136" t="n">
         <v>-0.6902344702766531</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.2560466412844711</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B137" t="n">
         <v>-0.8990728516005086</v>
@@ -4406,7 +4406,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D137" t="n">
-        <v>1.196912260638519</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E137" t="n">
         <v>-0.7052171931401728</v>
@@ -4415,7 +4415,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G137" t="n">
-        <v>1.196892243973677</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H137" t="n">
         <v>-0.6902344702766531</v>
@@ -4426,7 +4426,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.9198945053279256</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B138" t="n">
         <v>-0.8990728516005086</v>
@@ -4435,7 +4435,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D138" t="n">
-        <v>1.708312278068391</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E138" t="n">
         <v>-0.7052171931401728</v>
@@ -4444,7 +4444,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G138" t="n">
-        <v>1.708162557008343</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H138" t="n">
         <v>-0.6902344702766531</v>
@@ -4455,7 +4455,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.7600995321784683</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B139" t="n">
         <v>-0.8990728516005086</v>
@@ -4464,7 +4464,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D139" t="n">
-        <v>1.628095964773801</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E139" t="n">
         <v>-0.7052171931401728</v>
@@ -4473,7 +4473,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G139" t="n">
-        <v>1.628014351403106</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H139" t="n">
         <v>-0.6902344702766531</v>
@@ -4484,7 +4484,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B140" t="n">
         <v>-0.8990728516005086</v>
@@ -4493,7 +4493,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D140" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E140" t="n">
         <v>-0.7052171931401728</v>
@@ -4502,7 +4502,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G140" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H140" t="n">
         <v>-0.6902344702766531</v>
@@ -4513,7 +4513,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B141" t="n">
         <v>-0.8990728516005086</v>
@@ -4522,7 +4522,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D141" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E141" t="n">
         <v>-0.7052171931401728</v>
@@ -4531,7 +4531,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G141" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H141" t="n">
         <v>-0.6902344702766531</v>
@@ -4542,7 +4542,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.6304375750892253</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B142" t="n">
         <v>-0.8990728516005086</v>
@@ -4551,7 +4551,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D142" t="n">
-        <v>0.6633994646092307</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E142" t="n">
         <v>-0.7052171931401728</v>
@@ -4560,7 +4560,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G142" t="n">
-        <v>0.6633964646315678</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H142" t="n">
         <v>-0.6902344702766531</v>
@@ -4571,7 +4571,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.6361176293051195</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B143" t="n">
         <v>-0.8990728516005086</v>
@@ -4580,7 +4580,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D143" t="n">
-        <v>1.393046309464622</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E143" t="n">
         <v>-0.7052171931401728</v>
@@ -4589,7 +4589,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G143" t="n">
-        <v>1.392880955538871</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H143" t="n">
         <v>-0.6902344702766531</v>
@@ -4600,7 +4600,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.5066766772679314</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B144" t="n">
         <v>-0.8990728516005086</v>
@@ -4609,7 +4609,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D144" t="n">
-        <v>1.407407591164014</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E144" t="n">
         <v>-0.7052171931401728</v>
@@ -4618,7 +4618,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G144" t="n">
-        <v>1.407389584535483</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H144" t="n">
         <v>-0.6902344702766531</v>
@@ -4629,7 +4629,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.9723248439268225</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B145" t="n">
         <v>-0.8990728516005086</v>
@@ -4638,7 +4638,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D145" t="n">
-        <v>1.803540911601313</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E145" t="n">
         <v>-0.7052171931401728</v>
@@ -4647,7 +4647,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G145" t="n">
-        <v>1.803488417456808</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H145" t="n">
         <v>-0.6902344702766531</v>
@@ -4658,7 +4658,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B146" t="n">
         <v>-0.8990728516005086</v>
@@ -4667,7 +4667,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D146" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E146" t="n">
         <v>-0.7052171931401728</v>
@@ -4676,7 +4676,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G146" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H146" t="n">
         <v>-0.6902344702766531</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.8098466066607271</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B147" t="n">
         <v>-0.8990728516005086</v>
@@ -4696,7 +4696,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D147" t="n">
-        <v>1.62622963754183</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E147" t="n">
         <v>-0.7052171931401728</v>
@@ -4705,7 +4705,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G147" t="n">
-        <v>1.626144183998943</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H147" t="n">
         <v>-0.6902344702766531</v>
@@ -4716,7 +4716,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B148" t="n">
         <v>-0.8990728516005086</v>
@@ -4725,7 +4725,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D148" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E148" t="n">
         <v>-0.7052171931401728</v>
@@ -4734,7 +4734,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G148" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H148" t="n">
         <v>-0.6902344702766531</v>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.4310686955319743</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B149" t="n">
         <v>-0.8990728516005086</v>
@@ -4754,7 +4754,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D149" t="n">
-        <v>0.7626774091427962</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E149" t="n">
         <v>-0.7052171931401728</v>
@@ -4763,7 +4763,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G149" t="n">
-        <v>0.7626712286390318</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H149" t="n">
         <v>-0.6902344702766531</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.2216460241086003</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B150" t="n">
         <v>-0.8990728516005086</v>
@@ -4783,7 +4783,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D150" t="n">
-        <v>1.183302379312759</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E150" t="n">
         <v>-0.7052171931401728</v>
@@ -4792,7 +4792,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G150" t="n">
-        <v>1.183277971940558</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H150" t="n">
         <v>-0.6902344702766531</v>
@@ -4803,7 +4803,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.4653751239525209</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B151" t="n">
         <v>-0.8990728516005086</v>
@@ -4812,7 +4812,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D151" t="n">
-        <v>0.6517651754262855</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E151" t="n">
         <v>-0.7052171931401728</v>
@@ -4821,7 +4821,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G151" t="n">
-        <v>0.6517446844113067</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H151" t="n">
         <v>-0.6902344702766531</v>
@@ -4832,7 +4832,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B152" t="n">
         <v>-0.8990728516005086</v>
@@ -4841,7 +4841,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D152" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E152" t="n">
         <v>-0.7052171931401728</v>
@@ -4850,7 +4850,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G152" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H152" t="n">
         <v>-0.6902344702766531</v>
@@ -4861,7 +4861,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.9923078115416749</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B153" t="n">
         <v>-0.8990728516005086</v>
@@ -4870,7 +4870,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D153" t="n">
-        <v>1.754500980907429</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E153" t="n">
         <v>-0.7052171931401728</v>
@@ -4879,7 +4879,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G153" t="n">
-        <v>1.754361785093532</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H153" t="n">
         <v>-0.6902344702766531</v>
@@ -4890,7 +4890,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B154" t="n">
         <v>-0.8990728516005086</v>
@@ -4899,7 +4899,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D154" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E154" t="n">
         <v>-0.7052171931401728</v>
@@ -4908,7 +4908,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G154" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H154" t="n">
         <v>-0.6902344702766531</v>
@@ -4919,7 +4919,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1.033640313264185</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B155" t="n">
         <v>-0.8990728516005086</v>
@@ -4928,7 +4928,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D155" t="n">
-        <v>1.866317437591448</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E155" t="n">
         <v>-0.7052171931401728</v>
@@ -4937,7 +4937,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G155" t="n">
-        <v>1.866236078840658</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H155" t="n">
         <v>-0.6902344702766531</v>
@@ -4948,7 +4948,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1.429556915644862</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B156" t="n">
         <v>-0.8990728516005086</v>
@@ -4957,7 +4957,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D156" t="n">
-        <v>2.11689689774839</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E156" t="n">
         <v>-0.7052171931401728</v>
@@ -4966,7 +4966,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G156" t="n">
-        <v>2.116874749219479</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H156" t="n">
         <v>-0.6902344702766531</v>
@@ -4977,7 +4977,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1.279292365341619</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B157" t="n">
         <v>-0.8990728516005086</v>
@@ -4986,7 +4986,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D157" t="n">
-        <v>1.92262381739831</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E157" t="n">
         <v>-0.7052171931401728</v>
@@ -4995,7 +4995,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G157" t="n">
-        <v>1.922439624702726</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H157" t="n">
         <v>-0.6902344702766531</v>
@@ -5006,7 +5006,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B158" t="n">
         <v>-0.8990728516005086</v>
@@ -5015,7 +5015,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D158" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E158" t="n">
         <v>-0.7052171931401728</v>
@@ -5024,7 +5024,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G158" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H158" t="n">
         <v>-0.6902344702766531</v>
@@ -5035,7 +5035,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.8234535103906744</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B159" t="n">
         <v>-0.8990728516005086</v>
@@ -5044,7 +5044,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D159" t="n">
-        <v>1.748470593047109</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E159" t="n">
         <v>-0.7052171931401728</v>
@@ -5053,7 +5053,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G159" t="n">
-        <v>1.748435591754531</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H159" t="n">
         <v>-0.6902344702766531</v>
@@ -5064,7 +5064,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B160" t="n">
         <v>-0.8990728516005086</v>
@@ -5073,7 +5073,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D160" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E160" t="n">
         <v>-0.7052171931401728</v>
@@ -5082,7 +5082,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G160" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H160" t="n">
         <v>-0.6902344702766531</v>
@@ -5093,7 +5093,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.9457362652915903</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B161" t="n">
         <v>-0.8990728516005086</v>
@@ -5102,7 +5102,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D161" t="n">
-        <v>1.675144148359902</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E161" t="n">
         <v>-0.7052171931401728</v>
@@ -5111,7 +5111,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G161" t="n">
-        <v>1.675082366493708</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H161" t="n">
         <v>-0.6902344702766531</v>
@@ -5122,7 +5122,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B162" t="n">
         <v>-0.8990728516005086</v>
@@ -5131,7 +5131,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D162" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E162" t="n">
         <v>-0.7052171931401728</v>
@@ -5140,7 +5140,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G162" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H162" t="n">
         <v>-0.6902344702766531</v>
@@ -5151,7 +5151,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.3736568727980947</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B163" t="n">
         <v>-0.8990728516005086</v>
@@ -5160,7 +5160,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D163" t="n">
-        <v>0.7834367214996154</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E163" t="n">
         <v>-0.7052171931401728</v>
@@ -5169,7 +5169,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G163" t="n">
-        <v>0.7834287000653283</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H163" t="n">
         <v>-0.6902344702766531</v>
@@ -5180,7 +5180,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.8429529746436245</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B164" t="n">
         <v>-0.8990728516005086</v>
@@ -5189,7 +5189,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D164" t="n">
-        <v>1.503735458659788</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E164" t="n">
         <v>-0.7052171931401728</v>
@@ -5198,7 +5198,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G164" t="n">
-        <v>1.503489775275507</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H164" t="n">
         <v>-0.6902344702766531</v>
@@ -5209,7 +5209,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.07496518632866461</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B165" t="n">
         <v>-0.8990728516005086</v>
@@ -5218,7 +5218,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D165" t="n">
-        <v>1.06361202993043</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E165" t="n">
         <v>-0.7052171931401728</v>
@@ -5227,7 +5227,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G165" t="n">
-        <v>1.063553139354351</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H165" t="n">
         <v>-0.6902344702766531</v>
@@ -5238,7 +5238,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.2371538702856275</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B166" t="n">
         <v>-0.8990728516005086</v>
@@ -5247,7 +5247,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D166" t="n">
-        <v>1.142769271651199</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E166" t="n">
         <v>-0.7052171931401728</v>
@@ -5256,7 +5256,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G166" t="n">
-        <v>1.142740464284034</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H166" t="n">
         <v>-0.6902344702766531</v>
@@ -5267,7 +5267,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B167" t="n">
         <v>-0.8990728516005086</v>
@@ -5276,7 +5276,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D167" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E167" t="n">
         <v>-0.7052171931401728</v>
@@ -5285,7 +5285,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G167" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H167" t="n">
         <v>-0.6902344702766531</v>
@@ -5296,7 +5296,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.8445490375358524</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B168" t="n">
         <v>-0.8990728516005086</v>
@@ -5305,7 +5305,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D168" t="n">
-        <v>1.568767309786703</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E168" t="n">
         <v>-0.7052171931401728</v>
@@ -5314,7 +5314,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G168" t="n">
-        <v>1.568583571046513</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H168" t="n">
         <v>-0.6902344702766531</v>
@@ -5325,7 +5325,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.7786589615451545</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B169" t="n">
         <v>-0.8990728516005086</v>
@@ -5334,7 +5334,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D169" t="n">
-        <v>1.571311562641804</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E169" t="n">
         <v>-0.7052171931401728</v>
@@ -5343,7 +5343,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G169" t="n">
-        <v>1.57127748774239</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H169" t="n">
         <v>-0.6902344702766531</v>
@@ -5354,7 +5354,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.9271579504641719</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B170" t="n">
         <v>-0.8990728516005086</v>
@@ -5363,7 +5363,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D170" t="n">
-        <v>1.755544665138191</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E170" t="n">
         <v>-0.7052171931401728</v>
@@ -5372,7 +5372,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G170" t="n">
-        <v>1.755508660474974</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H170" t="n">
         <v>-0.6902344702766531</v>
@@ -5383,7 +5383,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.6997324524035501</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B171" t="n">
         <v>-0.8990728516005086</v>
@@ -5392,7 +5392,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D171" t="n">
-        <v>1.510009137026383</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E171" t="n">
         <v>-0.7052171931401728</v>
@@ -5401,7 +5401,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G171" t="n">
-        <v>1.509946030636794</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H171" t="n">
         <v>-0.6902344702766531</v>
@@ -5412,7 +5412,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.09406974768197716</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B172" t="n">
         <v>-0.8990728516005086</v>
@@ -5421,7 +5421,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D172" t="n">
-        <v>0.9700639679897919</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E172" t="n">
         <v>-0.7052171931401728</v>
@@ -5430,7 +5430,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G172" t="n">
-        <v>0.9699909427626242</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H172" t="n">
         <v>-0.6902344702766531</v>
@@ -5441,7 +5441,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1.453751274332291</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B173" t="n">
         <v>-0.8990728516005086</v>
@@ -5450,7 +5450,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D173" t="n">
-        <v>2.184552660593208</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E173" t="n">
         <v>-0.7052171931401728</v>
@@ -5459,7 +5459,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G173" t="n">
-        <v>2.184533531442705</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H173" t="n">
         <v>-0.6902344702766531</v>
@@ -5470,7 +5470,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.1673660473640887</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B174" t="n">
         <v>-0.8990728516005086</v>
@@ -5479,7 +5479,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D174" t="n">
-        <v>0.9275706744081638</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E174" t="n">
         <v>-0.7052171931401728</v>
@@ -5488,7 +5488,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G174" t="n">
-        <v>0.9275646885671149</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H174" t="n">
         <v>-0.6902344702766531</v>
@@ -5499,7 +5499,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.5393440921543262</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B175" t="n">
         <v>-0.8990728516005086</v>
@@ -5508,7 +5508,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D175" t="n">
-        <v>0.703542898277949</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E175" t="n">
         <v>-0.7052171931401728</v>
@@ -5517,7 +5517,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G175" t="n">
-        <v>0.7035380056446109</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H175" t="n">
         <v>-0.6902344702766531</v>
@@ -5528,7 +5528,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1.587560931005707</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B176" t="n">
         <v>-0.8990728516005086</v>
@@ -5537,7 +5537,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D176" t="n">
-        <v>2.194336958978506</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E176" t="n">
         <v>-0.7052171931401728</v>
@@ -5546,7 +5546,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G176" t="n">
-        <v>2.194203983851023</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H176" t="n">
         <v>-0.6902344702766531</v>
@@ -5557,7 +5557,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.1052509270982886</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B177" t="n">
         <v>-0.8990728516005086</v>
@@ -5566,7 +5566,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D177" t="n">
-        <v>1.077112671168119</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E177" t="n">
         <v>-0.7052171931401728</v>
@@ -5575,7 +5575,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G177" t="n">
-        <v>1.077087828854861</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H177" t="n">
         <v>-0.6902344702766531</v>
@@ -5586,7 +5586,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1.419853523248007</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B178" t="n">
         <v>-0.8990728516005086</v>
@@ -5595,7 +5595,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D178" t="n">
-        <v>2.084688948187064</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E178" t="n">
         <v>-0.7052171931401728</v>
@@ -5604,7 +5604,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G178" t="n">
-        <v>2.084694014077213</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H178" t="n">
         <v>-0.6902344702766531</v>
@@ -5615,7 +5615,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.8603914938061622</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B179" t="n">
         <v>-0.8990728516005086</v>
@@ -5624,7 +5624,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D179" t="n">
-        <v>1.648368669351772</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E179" t="n">
         <v>-0.7052171931401728</v>
@@ -5633,7 +5633,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G179" t="n">
-        <v>1.648216011264459</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H179" t="n">
         <v>-0.6902344702766531</v>
@@ -5644,7 +5644,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>1.409859365326859</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B180" t="n">
         <v>-0.8990728516005086</v>
@@ -5653,7 +5653,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D180" t="n">
-        <v>2.187880572177185</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E180" t="n">
         <v>-0.7052171931401728</v>
@@ -5662,7 +5662,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G180" t="n">
-        <v>2.187839843015187</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H180" t="n">
         <v>-0.6902344702766531</v>
@@ -5673,7 +5673,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B181" t="n">
         <v>-0.8990728516005086</v>
@@ -5682,7 +5682,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D181" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E181" t="n">
         <v>-0.7052171931401728</v>
@@ -5691,7 +5691,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G181" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H181" t="n">
         <v>-0.6902344702766531</v>
@@ -5702,7 +5702,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>1.523098390838655</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B182" t="n">
         <v>-0.8990728516005086</v>
@@ -5711,7 +5711,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D182" t="n">
-        <v>2.202520025797835</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E182" t="n">
         <v>-0.7052171931401728</v>
@@ -5720,7 +5720,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G182" t="n">
-        <v>2.202464020839884</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H182" t="n">
         <v>-0.6902344702766531</v>
@@ -5731,7 +5731,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.4754051848335958</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B183" t="n">
         <v>-0.8990728516005086</v>
@@ -5740,7 +5740,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D183" t="n">
-        <v>1.323429982233724</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E183" t="n">
         <v>-0.7052171931401728</v>
@@ -5749,7 +5749,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G183" t="n">
-        <v>1.323386796584227</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H183" t="n">
         <v>-0.6902344702766531</v>
@@ -5760,7 +5760,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.6237837562962907</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B184" t="n">
         <v>-0.8990728516005086</v>
@@ -5769,7 +5769,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D184" t="n">
-        <v>0.6791100337438362</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E184" t="n">
         <v>-0.7052171931401728</v>
@@ -5778,7 +5778,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G184" t="n">
-        <v>0.679106006415075</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H184" t="n">
         <v>-0.6902344702766531</v>
@@ -5789,7 +5789,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B185" t="n">
         <v>-0.8990728516005086</v>
@@ -5798,7 +5798,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D185" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E185" t="n">
         <v>-0.7052171931401728</v>
@@ -5807,7 +5807,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G185" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H185" t="n">
         <v>-0.6902344702766531</v>
@@ -5818,7 +5818,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.324192446971413</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B186" t="n">
         <v>-0.8990728516005086</v>
@@ -5827,7 +5827,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D186" t="n">
-        <v>0.8362694575700814</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E186" t="n">
         <v>-0.7052171931401728</v>
@@ -5836,7 +5836,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G186" t="n">
-        <v>0.8362584779510427</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H186" t="n">
         <v>-0.6902344702766531</v>
@@ -5847,7 +5847,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B187" t="n">
         <v>-0.8990728516005086</v>
@@ -5856,7 +5856,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D187" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E187" t="n">
         <v>-0.7052171931401728</v>
@@ -5865,7 +5865,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G187" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H187" t="n">
         <v>-0.6902344702766531</v>
@@ -5876,7 +5876,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.1517161549203083</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B188" t="n">
         <v>-0.8990728516005086</v>
@@ -5885,7 +5885,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D188" t="n">
-        <v>1.121983892015629</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E188" t="n">
         <v>-0.7052171931401728</v>
@@ -5894,7 +5894,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G188" t="n">
-        <v>1.121935036700958</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H188" t="n">
         <v>-0.6902344702766531</v>
@@ -5905,7 +5905,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B189" t="n">
         <v>-0.8990728516005086</v>
@@ -5914,7 +5914,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D189" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E189" t="n">
         <v>-0.7052171931401728</v>
@@ -5923,7 +5923,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G189" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H189" t="n">
         <v>-0.6902344702766531</v>
@@ -5934,7 +5934,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B190" t="n">
         <v>-0.8990728516005086</v>
@@ -5943,7 +5943,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D190" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E190" t="n">
         <v>-0.7052171931401728</v>
@@ -5952,7 +5952,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G190" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H190" t="n">
         <v>-0.6902344702766531</v>
@@ -5963,7 +5963,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B191" t="n">
         <v>-0.8990728516005086</v>
@@ -5972,7 +5972,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D191" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E191" t="n">
         <v>-0.7052171931401728</v>
@@ -5981,7 +5981,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G191" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H191" t="n">
         <v>-0.6902344702766531</v>
@@ -5992,7 +5992,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1.235581773747941</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B192" t="n">
         <v>-0.8990728516005086</v>
@@ -6001,7 +6001,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D192" t="n">
-        <v>2.054649488891431</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E192" t="n">
         <v>-0.7052171931401728</v>
@@ -6010,7 +6010,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G192" t="n">
-        <v>2.054610214505229</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H192" t="n">
         <v>-0.6902344702766531</v>
@@ -6021,7 +6021,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.4042337407340476</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B193" t="n">
         <v>-0.8990728516005086</v>
@@ -6030,7 +6030,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D193" t="n">
-        <v>1.251449949384952</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E193" t="n">
         <v>-0.7052171931401728</v>
@@ -6039,7 +6039,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G193" t="n">
-        <v>1.251378476785087</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H193" t="n">
         <v>-0.6902344702766531</v>
@@ -6050,7 +6050,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.8891039635012377</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B194" t="n">
         <v>-0.8990728516005086</v>
@@ -6059,7 +6059,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D194" t="n">
-        <v>1.781994314582128</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E194" t="n">
         <v>-0.7052171931401728</v>
@@ -6068,7 +6068,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G194" t="n">
-        <v>1.781971827925238</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H194" t="n">
         <v>-0.6902344702766531</v>
@@ -6079,7 +6079,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>1.242876798752709</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B195" t="n">
         <v>-0.8990728516005086</v>
@@ -6088,7 +6088,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D195" t="n">
-        <v>1.926883124649086</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E195" t="n">
         <v>-0.7052171931401728</v>
@@ -6097,7 +6097,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G195" t="n">
-        <v>1.926764441573748</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H195" t="n">
         <v>-0.6902344702766531</v>
@@ -6108,7 +6108,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.5373806750195882</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B196" t="n">
         <v>-0.8990728516005086</v>
@@ -6117,7 +6117,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D196" t="n">
-        <v>0.6480724234967411</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E196" t="n">
         <v>-0.7052171931401728</v>
@@ -6126,7 +6126,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G196" t="n">
-        <v>0.6480586493715658</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H196" t="n">
         <v>-0.6902344702766531</v>
@@ -6137,7 +6137,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.945869146405417</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B197" t="n">
         <v>-0.8990728516005086</v>
@@ -6146,7 +6146,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D197" t="n">
-        <v>1.752400190634527</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E197" t="n">
         <v>-0.7052171931401728</v>
@@ -6155,7 +6155,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G197" t="n">
-        <v>1.75230471589897</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H197" t="n">
         <v>-0.6902344702766531</v>
@@ -6166,7 +6166,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.3855712024927542</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B198" t="n">
         <v>-0.8990728516005086</v>
@@ -6175,7 +6175,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D198" t="n">
-        <v>1.432760458407326</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E198" t="n">
         <v>-0.7052171931401728</v>
@@ -6184,7 +6184,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G198" t="n">
-        <v>1.432744468929398</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H198" t="n">
         <v>-0.6902344702766531</v>
@@ -6195,7 +6195,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.5016829330749526</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B199" t="n">
         <v>-0.8990728516005086</v>
@@ -6204,7 +6204,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D199" t="n">
-        <v>0.732027389835146</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E199" t="n">
         <v>-0.7052171931401728</v>
@@ -6213,7 +6213,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G199" t="n">
-        <v>0.7320228231766878</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H199" t="n">
         <v>-0.6902344702766531</v>
@@ -6224,7 +6224,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.4493072354064441</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B200" t="n">
         <v>-0.8990728516005086</v>
@@ -6233,7 +6233,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D200" t="n">
-        <v>0.640843381781838</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E200" t="n">
         <v>-0.7052171931401728</v>
@@ -6242,7 +6242,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G200" t="n">
-        <v>0.6408336174922226</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H200" t="n">
         <v>-0.6902344702766531</v>
@@ -6253,7 +6253,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>1.12109262541117</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B201" t="n">
         <v>-0.8990728516005086</v>
@@ -6262,7 +6262,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D201" t="n">
-        <v>1.861213529840075</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E201" t="n">
         <v>-0.7052171931401728</v>
@@ -6271,7 +6271,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G201" t="n">
-        <v>1.861159756922506</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H201" t="n">
         <v>-0.6902344702766531</v>
@@ -6282,7 +6282,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>1.779936672450037</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B202" t="n">
         <v>-0.8990728516005086</v>
@@ -6291,7 +6291,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D202" t="n">
-        <v>2.303484494901283</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E202" t="n">
         <v>-0.7052171931401728</v>
@@ -6300,7 +6300,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G202" t="n">
-        <v>2.303503882912417</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H202" t="n">
         <v>-0.6902344702766531</v>
@@ -6311,7 +6311,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1.262487560388307</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B203" t="n">
         <v>-0.8990728516005086</v>
@@ -6320,7 +6320,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D203" t="n">
-        <v>2.007916713695572</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E203" t="n">
         <v>-0.7052171931401728</v>
@@ -6329,7 +6329,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G203" t="n">
-        <v>2.007780194044655</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H203" t="n">
         <v>-0.6902344702766531</v>
@@ -6340,7 +6340,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.3361073603265342</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B204" t="n">
         <v>-0.8990728516005086</v>
@@ -6349,7 +6349,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D204" t="n">
-        <v>1.334750881936854</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E204" t="n">
         <v>-0.7052171931401728</v>
@@ -6358,7 +6358,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G204" t="n">
-        <v>1.334745525895242</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H204" t="n">
         <v>-0.6902344702766531</v>
@@ -6369,7 +6369,7 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B205" t="n">
         <v>-0.8990728516005086</v>
@@ -6378,7 +6378,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D205" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E205" t="n">
         <v>-0.7052171931401728</v>
@@ -6387,7 +6387,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G205" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H205" t="n">
         <v>-0.6902344702766531</v>
@@ -6398,7 +6398,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.28457246132815</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B206" t="n">
         <v>-0.8990728516005086</v>
@@ -6407,7 +6407,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D206" t="n">
-        <v>0.7847684982222652</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E206" t="n">
         <v>-0.7052171931401728</v>
@@ -6416,7 +6416,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G206" t="n">
-        <v>0.784759451337025</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H206" t="n">
         <v>-0.6902344702766531</v>
@@ -6427,7 +6427,7 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B207" t="n">
         <v>-0.8990728516005086</v>
@@ -6436,7 +6436,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D207" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E207" t="n">
         <v>-0.7052171931401728</v>
@@ -6445,7 +6445,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G207" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H207" t="n">
         <v>-0.6902344702766531</v>
@@ -6456,7 +6456,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B208" t="n">
         <v>-0.8990728516005086</v>
@@ -6465,7 +6465,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D208" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E208" t="n">
         <v>-0.7052171931401728</v>
@@ -6474,7 +6474,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G208" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H208" t="n">
         <v>-0.6902344702766531</v>
@@ -6485,7 +6485,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.6414640163307138</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B209" t="n">
         <v>-0.8990728516005086</v>
@@ -6494,7 +6494,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D209" t="n">
-        <v>1.475819369063069</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E209" t="n">
         <v>-0.7052171931401728</v>
@@ -6503,7 +6503,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G209" t="n">
-        <v>1.475723757611916</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H209" t="n">
         <v>-0.6902344702766531</v>
@@ -6514,7 +6514,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B210" t="n">
         <v>-0.8990728516005086</v>
@@ -6523,7 +6523,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D210" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E210" t="n">
         <v>-0.7052171931401728</v>
@@ -6532,7 +6532,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G210" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H210" t="n">
         <v>-0.6902344702766531</v>
@@ -6543,7 +6543,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.07604570471901981</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B211" t="n">
         <v>-0.8990728516005086</v>
@@ -6552,7 +6552,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D211" t="n">
-        <v>1.058456699679792</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E211" t="n">
         <v>-0.7052171931401728</v>
@@ -6561,7 +6561,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G211" t="n">
-        <v>1.058419668582413</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H211" t="n">
         <v>-0.6902344702766531</v>
@@ -6572,7 +6572,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.5420380297109746</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B212" t="n">
         <v>-0.8990728516005086</v>
@@ -6581,7 +6581,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D212" t="n">
-        <v>0.6847896632479238</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E212" t="n">
         <v>-0.7052171931401728</v>
@@ -6590,7 +6590,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G212" t="n">
-        <v>0.6847821289765642</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H212" t="n">
         <v>-0.6902344702766531</v>
@@ -6601,7 +6601,7 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.60648835740454</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B213" t="n">
         <v>-0.8990728516005086</v>
@@ -6610,7 +6610,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D213" t="n">
-        <v>0.6470023729344686</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E213" t="n">
         <v>-0.7052171931401728</v>
@@ -6619,7 +6619,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G213" t="n">
-        <v>0.6469946064214273</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H213" t="n">
         <v>-0.6902344702766531</v>
@@ -6630,7 +6630,7 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>1.267946370277889</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B214" t="n">
         <v>-0.8990728516005086</v>
@@ -6639,7 +6639,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D214" t="n">
-        <v>2.01180794075191</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E214" t="n">
         <v>-0.7052171931401728</v>
@@ -6648,7 +6648,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G214" t="n">
-        <v>2.011748478515789</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H214" t="n">
         <v>-0.6902344702766531</v>
@@ -6659,7 +6659,7 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.4112452418809691</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B215" t="n">
         <v>-0.8990728516005086</v>
@@ -6668,7 +6668,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D215" t="n">
-        <v>0.6946718407009979</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E215" t="n">
         <v>-0.7052171931401728</v>
@@ -6677,7 +6677,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G215" t="n">
-        <v>0.6946602490949243</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H215" t="n">
         <v>-0.6902344702766531</v>
@@ -6688,7 +6688,7 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>1.227743271149655</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B216" t="n">
         <v>-0.8990728516005086</v>
@@ -6697,7 +6697,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D216" t="n">
-        <v>1.955301376181766</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E216" t="n">
         <v>-0.7052171931401728</v>
@@ -6706,7 +6706,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G216" t="n">
-        <v>1.955162489000644</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H216" t="n">
         <v>-0.6902344702766531</v>
@@ -6717,7 +6717,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0.1713191323134722</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B217" t="n">
         <v>-0.8990728516005086</v>
@@ -6726,7 +6726,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D217" t="n">
-        <v>0.7812867680582093</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E217" t="n">
         <v>-0.7052171931401728</v>
@@ -6735,7 +6735,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G217" t="n">
-        <v>0.7812595696083858</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H217" t="n">
         <v>-0.6902344702766531</v>
@@ -6746,7 +6746,7 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0.2140441237562719</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B218" t="n">
         <v>-0.8990728516005086</v>
@@ -6755,7 +6755,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D218" t="n">
-        <v>0.7424123385771388</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E218" t="n">
         <v>-0.7052171931401728</v>
@@ -6764,7 +6764,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G218" t="n">
-        <v>0.7423656698866929</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H218" t="n">
         <v>-0.6902344702766531</v>
@@ -6775,7 +6775,7 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>1.237938284105668</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B219" t="n">
         <v>-0.8990728516005086</v>
@@ -6784,7 +6784,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D219" t="n">
-        <v>1.856114178669494</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E219" t="n">
         <v>-0.7052171931401728</v>
@@ -6793,7 +6793,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G219" t="n">
-        <v>1.855991395272371</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H219" t="n">
         <v>-0.6902344702766531</v>
@@ -6804,7 +6804,7 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>1.078250114752962</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B220" t="n">
         <v>-0.8990728516005086</v>
@@ -6813,7 +6813,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D220" t="n">
-        <v>1.937187629421898</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E220" t="n">
         <v>-0.7052171931401728</v>
@@ -6822,7 +6822,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G220" t="n">
-        <v>1.937140972341018</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H220" t="n">
         <v>-0.6902344702766531</v>
@@ -6833,7 +6833,7 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>1.055045203751757</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B221" t="n">
         <v>-0.8990728516005086</v>
@@ -6842,7 +6842,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D221" t="n">
-        <v>1.907487618370909</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E221" t="n">
         <v>-0.7052171931401728</v>
@@ -6851,7 +6851,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G221" t="n">
-        <v>1.907481759756722</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H221" t="n">
         <v>-0.6902344702766531</v>
@@ -6862,7 +6862,7 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0.966886263625672</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B222" t="n">
         <v>-0.8990728516005086</v>
@@ -6871,7 +6871,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D222" t="n">
-        <v>1.787977306818388</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E222" t="n">
         <v>-0.7052171931401728</v>
@@ -6880,7 +6880,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G222" t="n">
-        <v>1.78785979979623</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H222" t="n">
         <v>-0.6902344702766531</v>
@@ -6891,7 +6891,7 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0.234101534120137</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B223" t="n">
         <v>-0.8990728516005086</v>
@@ -6900,7 +6900,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D223" t="n">
-        <v>1.149766334880739</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E223" t="n">
         <v>-0.7052171931401728</v>
@@ -6909,7 +6909,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G223" t="n">
-        <v>1.149742805781145</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H223" t="n">
         <v>-0.6902344702766531</v>
@@ -6920,7 +6920,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B224" t="n">
         <v>-0.8990728516005086</v>
@@ -6929,7 +6929,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D224" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E224" t="n">
         <v>-0.7052171931401728</v>
@@ -6938,7 +6938,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G224" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H224" t="n">
         <v>-0.6902344702766531</v>
@@ -6949,7 +6949,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>3.191128231363014</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B225" t="n">
         <v>-0.8990728516005086</v>
@@ -6958,7 +6958,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D225" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E225" t="n">
         <v>-0.7052171931401728</v>
@@ -6967,7 +6967,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G225" t="n">
-        <v>0.03191128231363013</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H225" t="n">
         <v>-0.6902344702766531</v>
@@ -6978,7 +6978,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>1.549815375165172</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B226" t="n">
         <v>-0.8990728516005086</v>
@@ -6987,7 +6987,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D226" t="n">
-        <v>2.145515186998444</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E226" t="n">
         <v>-0.7052171931401728</v>
@@ -6996,7 +6996,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G226" t="n">
-        <v>2.145433570658061</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H226" t="n">
         <v>-0.6902344702766531</v>
@@ -7007,7 +7007,7 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0.7020173096854144</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B227" t="n">
         <v>-0.8990728516005086</v>
@@ -7016,7 +7016,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D227" t="n">
-        <v>1.615533683403767</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E227" t="n">
         <v>-0.7052171931401728</v>
@@ -7025,7 +7025,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G227" t="n">
-        <v>1.615491528957416</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H227" t="n">
         <v>-0.6902344702766531</v>
@@ -7036,7 +7036,7 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>1.107956683740164</v>
+        <v>1.779049723878139</v>
       </c>
       <c r="B228" t="n">
         <v>-0.8990728516005086</v>
@@ -7045,7 +7045,7 @@
         <v>-0.09895377014130968</v>
       </c>
       <c r="D228" t="n">
-        <v>1.908174755420754</v>
+        <v>1.313767630628145</v>
       </c>
       <c r="E228" t="n">
         <v>-0.7052171931401728</v>
@@ -7054,7 +7054,7 @@
         <v>-0.1537767071766978</v>
       </c>
       <c r="G228" t="n">
-        <v>1.908143181488957</v>
+        <v>1.313707391951357</v>
       </c>
       <c r="H228" t="n">
         <v>-0.6902344702766531</v>
